--- a/tmp_output/docked_raw/docked_raw_2022-03-12.xlsx
+++ b/tmp_output/docked_raw/docked_raw_2022-03-12.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="779" uniqueCount="212">
   <si>
     <t>員編</t>
   </si>
@@ -620,552 +620,18 @@
     <t>INTWK0002203080433</t>
   </si>
   <si>
-    <t>8809707267615</t>
-  </si>
-  <si>
-    <t>8809707249826</t>
-  </si>
-  <si>
-    <t>6941399073524</t>
-  </si>
-  <si>
-    <t>6944284624627</t>
-  </si>
-  <si>
-    <t>6944284629677</t>
-  </si>
-  <si>
-    <t>6944284641570</t>
-  </si>
-  <si>
-    <t>6941399040670</t>
-  </si>
-  <si>
-    <t>6941399034716</t>
-  </si>
-  <si>
-    <t>6944284686434</t>
-  </si>
-  <si>
-    <t>6944284686038</t>
-  </si>
-  <si>
-    <t>6944284698024</t>
-  </si>
-  <si>
-    <t>6944284698017</t>
-  </si>
-  <si>
-    <t>6941399073517</t>
-  </si>
-  <si>
-    <t>6941399056091</t>
-  </si>
-  <si>
-    <t>6944284667877</t>
-  </si>
-  <si>
-    <t>6941399034723</t>
-  </si>
-  <si>
-    <t>4718005881512</t>
-  </si>
-  <si>
-    <t>8851753099870</t>
-  </si>
-  <si>
-    <t>8993175531993</t>
-  </si>
-  <si>
-    <t>4712466017855</t>
-  </si>
-  <si>
-    <t>4710375110285</t>
-  </si>
-  <si>
-    <t>4895229107168</t>
-  </si>
-  <si>
-    <t>6970274910159</t>
-  </si>
-  <si>
-    <t>4717385949485</t>
-  </si>
-  <si>
-    <t>4717385949522</t>
-  </si>
-  <si>
-    <t>4895229119734</t>
-  </si>
-  <si>
-    <t>6951613981184</t>
-  </si>
-  <si>
-    <t>4710004725293</t>
-  </si>
-  <si>
-    <t>4710004725316</t>
-  </si>
-  <si>
-    <t>4710004725330</t>
-  </si>
-  <si>
-    <t>4710004725279</t>
-  </si>
-  <si>
-    <t>4710004725323</t>
-  </si>
-  <si>
-    <t>4712883419461</t>
-  </si>
-  <si>
-    <t>4710004721165</t>
-  </si>
-  <si>
-    <t>4895229101470</t>
-  </si>
-  <si>
-    <t>4710004724920</t>
-  </si>
-  <si>
-    <t>4712883419492</t>
-  </si>
-  <si>
-    <t>4710004720328</t>
-  </si>
-  <si>
-    <t>4710004720694</t>
-  </si>
-  <si>
-    <t>4710004723435</t>
-  </si>
-  <si>
-    <t>18001</t>
-  </si>
-  <si>
     <t>C003</t>
   </si>
   <si>
-    <t>15005</t>
-  </si>
-  <si>
-    <t>15002</t>
-  </si>
-  <si>
-    <t>15004</t>
-  </si>
-  <si>
-    <t>18006</t>
-  </si>
-  <si>
-    <t>18005</t>
-  </si>
-  <si>
-    <t>15003</t>
-  </si>
-  <si>
-    <t>15006</t>
-  </si>
-  <si>
-    <t>4710036395440</t>
-  </si>
-  <si>
-    <t>4710114811541</t>
-  </si>
-  <si>
-    <t>14710036561798</t>
-  </si>
-  <si>
-    <t>4710036394924</t>
-  </si>
-  <si>
-    <t>14710036561774</t>
-  </si>
-  <si>
-    <t>4710114880684</t>
-  </si>
-  <si>
-    <t>4710036561777</t>
-  </si>
-  <si>
-    <t>4710036561791</t>
-  </si>
-  <si>
-    <t>4710114882350</t>
-  </si>
-  <si>
-    <t>4710114862178</t>
-  </si>
-  <si>
-    <t>4710036395433</t>
-  </si>
-  <si>
-    <t>4715635313604</t>
-  </si>
-  <si>
-    <t>4715635314083</t>
-  </si>
-  <si>
-    <t>4715635313178</t>
-  </si>
-  <si>
-    <t>4715635313499</t>
-  </si>
-  <si>
-    <t>4715635312591</t>
-  </si>
-  <si>
-    <t>4715635312577</t>
-  </si>
-  <si>
-    <t>4715635310207</t>
-  </si>
-  <si>
-    <t>4715635314113</t>
-  </si>
-  <si>
-    <t>4715635313109</t>
-  </si>
-  <si>
-    <t>8801046377017</t>
-  </si>
-  <si>
-    <t>8801046902080</t>
-  </si>
-  <si>
-    <t>8801046353752</t>
-  </si>
-  <si>
-    <t>4713737251275</t>
-  </si>
-  <si>
-    <t>4713737018953</t>
-  </si>
-  <si>
-    <t>736150000316</t>
-  </si>
-  <si>
-    <t>887167485525</t>
-  </si>
-  <si>
-    <t>717334242258</t>
-  </si>
-  <si>
-    <t>717334240773</t>
-  </si>
-  <si>
-    <t>717334242272</t>
-  </si>
-  <si>
-    <t>4710405920211</t>
-  </si>
-  <si>
-    <t>4710405920259</t>
-  </si>
-  <si>
-    <t>740617321333</t>
-  </si>
-  <si>
-    <t>740617316841</t>
-  </si>
-  <si>
-    <t>649528901262</t>
-  </si>
-  <si>
-    <t>4902370548570</t>
-  </si>
-  <si>
-    <t>43736485</t>
-  </si>
-  <si>
-    <t>359901637</t>
-  </si>
-  <si>
-    <t>350500708</t>
-  </si>
-  <si>
     <t>A62</t>
   </si>
   <si>
-    <t>4970765135681</t>
-  </si>
-  <si>
-    <t>4970765131126</t>
-  </si>
-  <si>
-    <t>4713145008720</t>
-  </si>
-  <si>
-    <t>4713145008737</t>
-  </si>
-  <si>
-    <t>4974819059633</t>
-  </si>
-  <si>
-    <t>4974819767057</t>
-  </si>
-  <si>
-    <t>4710176042266</t>
-  </si>
-  <si>
-    <t>4717293002869</t>
-  </si>
-  <si>
-    <t>4717293002838</t>
-  </si>
-  <si>
-    <t>4717293002852</t>
-  </si>
-  <si>
-    <t>8801204903935</t>
-  </si>
-  <si>
-    <t>8801204008661</t>
-  </si>
-  <si>
-    <t>8411114078953</t>
-  </si>
-  <si>
-    <t>8801073143357</t>
-  </si>
-  <si>
-    <t>8809023461872</t>
-  </si>
-  <si>
-    <t>4901773100149</t>
-  </si>
-  <si>
-    <t>4711946900779</t>
-  </si>
-  <si>
-    <t>4903360222586</t>
-  </si>
-  <si>
-    <t>4903360222364</t>
-  </si>
-  <si>
-    <t>4714123396099</t>
-  </si>
-  <si>
-    <t>4715838251086</t>
-  </si>
-  <si>
-    <t>4901155411092</t>
-  </si>
-  <si>
-    <t>8411114063362</t>
-  </si>
-  <si>
-    <t>8411114087276</t>
-  </si>
-  <si>
-    <t>8411114089867</t>
-  </si>
-  <si>
-    <t>8411114084725</t>
-  </si>
-  <si>
-    <t>4711258094043</t>
-  </si>
-  <si>
-    <t>4711258070047</t>
-  </si>
-  <si>
-    <t>4713909081112</t>
-  </si>
-  <si>
-    <t>4711258080046</t>
-  </si>
-  <si>
-    <t>4710407900068</t>
-  </si>
-  <si>
-    <t>4710006513133</t>
-  </si>
-  <si>
-    <t>4710006512853</t>
-  </si>
-  <si>
-    <t>4710006512846</t>
-  </si>
-  <si>
-    <t>4712305973168</t>
-  </si>
-  <si>
-    <t>4710006511412</t>
-  </si>
-  <si>
-    <t>4713327052497</t>
-  </si>
-  <si>
-    <t>4717514000018</t>
-  </si>
-  <si>
-    <t>4711275100239</t>
-  </si>
-  <si>
-    <t>4711258520177</t>
-  </si>
-  <si>
-    <t>4717514000049</t>
-  </si>
-  <si>
-    <t>4711275100222</t>
-  </si>
-  <si>
-    <t>4717514000544</t>
-  </si>
-  <si>
-    <t>4717514005693</t>
-  </si>
-  <si>
-    <t>078895423037</t>
-  </si>
-  <si>
-    <t>4719783003035</t>
-  </si>
-  <si>
-    <t>3254474000500</t>
-  </si>
-  <si>
-    <t>4719783007620</t>
-  </si>
-  <si>
-    <t>4711258034117</t>
-  </si>
-  <si>
-    <t>3254474021840</t>
-  </si>
-  <si>
-    <t>4717514000070</t>
-  </si>
-  <si>
-    <t>4713737756220</t>
-  </si>
-  <si>
-    <t>4713737512833</t>
-  </si>
-  <si>
-    <t>4713737755636</t>
-  </si>
-  <si>
     <t>10325224643_27200379300</t>
   </si>
   <si>
-    <t>4713737722911</t>
-  </si>
-  <si>
-    <t>4713737754233</t>
-  </si>
-  <si>
-    <t>4713737754219</t>
-  </si>
-  <si>
-    <t>4713737754226</t>
-  </si>
-  <si>
-    <t>4713737754325</t>
-  </si>
-  <si>
-    <t>4713737754257</t>
-  </si>
-  <si>
-    <t>4713737512741</t>
-  </si>
-  <si>
-    <t>4713737512734</t>
-  </si>
-  <si>
-    <t>4713737751270</t>
-  </si>
-  <si>
-    <t>4713737512789</t>
-  </si>
-  <si>
-    <t>4713737651273</t>
-  </si>
-  <si>
-    <t>4713737755612</t>
-  </si>
-  <si>
-    <t>4713737755629</t>
-  </si>
-  <si>
-    <t>4713737512840</t>
-  </si>
-  <si>
-    <t>4713737512888</t>
-  </si>
-  <si>
-    <t>4713737512864</t>
-  </si>
-  <si>
-    <t>4713737128935</t>
-  </si>
-  <si>
-    <t>4713737051271</t>
-  </si>
-  <si>
-    <t>4713737151278</t>
-  </si>
-  <si>
-    <t>3605975038132</t>
-  </si>
-  <si>
-    <t>192333066966</t>
-  </si>
-  <si>
-    <t>3614272623507</t>
-  </si>
-  <si>
-    <t>717334247086</t>
-  </si>
-  <si>
-    <t>4710273811727</t>
-  </si>
-  <si>
-    <t>4710273811826</t>
-  </si>
-  <si>
-    <t>4710273811680</t>
-  </si>
-  <si>
-    <t>4710273811703</t>
-  </si>
-  <si>
-    <t>4710273811758</t>
-  </si>
-  <si>
-    <t>4710273811710</t>
-  </si>
-  <si>
-    <t>4710273811772</t>
-  </si>
-  <si>
-    <t>4710273811864</t>
-  </si>
-  <si>
-    <t>4710273811871</t>
-  </si>
-  <si>
-    <t>4710273811833</t>
-  </si>
-  <si>
-    <t>4710273811598</t>
-  </si>
-  <si>
     <t>PEA00171</t>
   </si>
   <si>
-    <t>4710679231136</t>
-  </si>
-  <si>
-    <t>4710679231150</t>
-  </si>
-  <si>
-    <t>4710679231129</t>
-  </si>
-  <si>
     <t>o</t>
   </si>
   <si>
@@ -1175,9 +641,6 @@
     <t>31國際條碼不符</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
     <t>x</t>
   </si>
   <si>
@@ -1185,135 +648,6 @@
   </si>
   <si>
     <t>-</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>2,000</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>90</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>100</t>
-  </si>
-  <si>
-    <t>75</t>
-  </si>
-  <si>
-    <t>50</t>
-  </si>
-  <si>
-    <t>39</t>
-  </si>
-  <si>
-    <t>28</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>31</t>
-  </si>
-  <si>
-    <t>43</t>
-  </si>
-  <si>
-    <t>300</t>
-  </si>
-  <si>
-    <t>48</t>
-  </si>
-  <si>
-    <t>24</t>
-  </si>
-  <si>
-    <t>400</t>
-  </si>
-  <si>
-    <t>150</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>40</t>
-  </si>
-  <si>
-    <t>240</t>
-  </si>
-  <si>
-    <t>120</t>
-  </si>
-  <si>
-    <t>32</t>
-  </si>
-  <si>
-    <t>320</t>
-  </si>
-  <si>
-    <t>224</t>
-  </si>
-  <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>135</t>
-  </si>
-  <si>
-    <t>30</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>36</t>
-  </si>
-  <si>
-    <t>80</t>
-  </si>
-  <si>
-    <t>500</t>
-  </si>
-  <si>
-    <t>108</t>
-  </si>
-  <si>
-    <t>72</t>
-  </si>
-  <si>
-    <t>252</t>
   </si>
   <si>
     <t>2022-03-12</t>
@@ -1726,23 +1060,23 @@
       <c r="B2" t="s">
         <v>11</v>
       </c>
-      <c r="C2" t="s">
-        <v>201</v>
+      <c r="C2">
+        <v>8809707267615</v>
       </c>
       <c r="F2" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G2" t="s">
-        <v>389</v>
-      </c>
-      <c r="H2" t="s">
-        <v>390</v>
+        <v>210</v>
+      </c>
+      <c r="H2">
+        <v>7</v>
       </c>
       <c r="I2" s="2">
         <v>44632</v>
       </c>
       <c r="J2" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -1755,23 +1089,23 @@
       <c r="B3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" t="s">
-        <v>202</v>
+      <c r="C3">
+        <v>8809707249826</v>
       </c>
       <c r="F3" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G3" t="s">
-        <v>389</v>
-      </c>
-      <c r="H3" t="s">
-        <v>391</v>
+        <v>210</v>
+      </c>
+      <c r="H3">
+        <v>2000</v>
       </c>
       <c r="I3" s="2">
         <v>44632</v>
       </c>
       <c r="J3" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -1784,26 +1118,26 @@
       <c r="B4" t="s">
         <v>13</v>
       </c>
-      <c r="C4" t="s">
-        <v>203</v>
+      <c r="C4">
+        <v>6941399073524</v>
       </c>
       <c r="D4" t="s">
-        <v>383</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G4" t="s">
-        <v>389</v>
-      </c>
-      <c r="H4" t="s">
-        <v>390</v>
+        <v>210</v>
+      </c>
+      <c r="H4">
+        <v>7</v>
       </c>
       <c r="I4" s="2">
         <v>44632</v>
       </c>
       <c r="J4" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -1816,23 +1150,23 @@
       <c r="B5" t="s">
         <v>14</v>
       </c>
-      <c r="C5" t="s">
-        <v>204</v>
+      <c r="C5">
+        <v>6944284624627</v>
       </c>
       <c r="F5" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G5" t="s">
-        <v>389</v>
-      </c>
-      <c r="H5" t="s">
-        <v>392</v>
+        <v>210</v>
+      </c>
+      <c r="H5">
+        <v>5</v>
       </c>
       <c r="I5" s="2">
         <v>44632</v>
       </c>
       <c r="J5" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -1845,23 +1179,23 @@
       <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="C6" t="s">
-        <v>205</v>
+      <c r="C6">
+        <v>6944284629677</v>
       </c>
       <c r="F6" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G6" t="s">
-        <v>389</v>
-      </c>
-      <c r="H6" t="s">
-        <v>393</v>
+        <v>210</v>
+      </c>
+      <c r="H6">
+        <v>90</v>
       </c>
       <c r="I6" s="2">
         <v>44632</v>
       </c>
       <c r="J6" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -1874,23 +1208,23 @@
       <c r="B7" t="s">
         <v>16</v>
       </c>
-      <c r="C7" t="s">
-        <v>203</v>
+      <c r="C7">
+        <v>6941399073524</v>
       </c>
       <c r="F7" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G7" t="s">
-        <v>389</v>
-      </c>
-      <c r="H7" t="s">
-        <v>394</v>
+        <v>210</v>
+      </c>
+      <c r="H7">
+        <v>4</v>
       </c>
       <c r="I7" s="2">
         <v>44632</v>
       </c>
       <c r="J7" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -1903,23 +1237,23 @@
       <c r="B8" t="s">
         <v>17</v>
       </c>
-      <c r="C8" t="s">
-        <v>206</v>
+      <c r="C8">
+        <v>6944284641570</v>
       </c>
       <c r="F8" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G8" t="s">
-        <v>389</v>
-      </c>
-      <c r="H8" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H8">
+        <v>20</v>
       </c>
       <c r="I8" s="2">
         <v>44632</v>
       </c>
       <c r="J8" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -1932,23 +1266,23 @@
       <c r="B9" t="s">
         <v>18</v>
       </c>
-      <c r="C9" t="s">
-        <v>207</v>
+      <c r="C9">
+        <v>6941399040670</v>
       </c>
       <c r="F9" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G9" t="s">
-        <v>389</v>
-      </c>
-      <c r="H9" t="s">
-        <v>396</v>
+        <v>210</v>
+      </c>
+      <c r="H9">
+        <v>100</v>
       </c>
       <c r="I9" s="2">
         <v>44632</v>
       </c>
       <c r="J9" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -1961,23 +1295,23 @@
       <c r="B10" t="s">
         <v>19</v>
       </c>
-      <c r="C10" t="s">
-        <v>208</v>
+      <c r="C10">
+        <v>6941399034716</v>
       </c>
       <c r="F10" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G10" t="s">
-        <v>389</v>
-      </c>
-      <c r="H10" t="s">
-        <v>396</v>
+        <v>210</v>
+      </c>
+      <c r="H10">
+        <v>100</v>
       </c>
       <c r="I10" s="2">
         <v>44632</v>
       </c>
       <c r="J10" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1990,23 +1324,23 @@
       <c r="B11" t="s">
         <v>20</v>
       </c>
-      <c r="C11" t="s">
-        <v>209</v>
+      <c r="C11">
+        <v>6944284686434</v>
       </c>
       <c r="F11" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G11" t="s">
-        <v>389</v>
-      </c>
-      <c r="H11" t="s">
-        <v>397</v>
+        <v>210</v>
+      </c>
+      <c r="H11">
+        <v>75</v>
       </c>
       <c r="I11" s="2">
         <v>44632</v>
       </c>
       <c r="J11" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -2019,23 +1353,23 @@
       <c r="B12" t="s">
         <v>21</v>
       </c>
-      <c r="C12" t="s">
-        <v>210</v>
+      <c r="C12">
+        <v>6944284686038</v>
       </c>
       <c r="F12" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G12" t="s">
-        <v>389</v>
-      </c>
-      <c r="H12" t="s">
-        <v>398</v>
+        <v>210</v>
+      </c>
+      <c r="H12">
+        <v>50</v>
       </c>
       <c r="I12" s="2">
         <v>44632</v>
       </c>
       <c r="J12" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -2048,23 +1382,23 @@
       <c r="B13" t="s">
         <v>22</v>
       </c>
-      <c r="C13" t="s">
-        <v>211</v>
+      <c r="C13">
+        <v>6944284698024</v>
       </c>
       <c r="F13" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G13" t="s">
-        <v>389</v>
-      </c>
-      <c r="H13" t="s">
-        <v>398</v>
+        <v>210</v>
+      </c>
+      <c r="H13">
+        <v>50</v>
       </c>
       <c r="I13" s="2">
         <v>44632</v>
       </c>
       <c r="J13" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -2077,23 +1411,23 @@
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="C14" t="s">
-        <v>212</v>
+      <c r="C14">
+        <v>6944284698017</v>
       </c>
       <c r="F14" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G14" t="s">
-        <v>389</v>
-      </c>
-      <c r="H14" t="s">
-        <v>398</v>
+        <v>210</v>
+      </c>
+      <c r="H14">
+        <v>50</v>
       </c>
       <c r="I14" s="2">
         <v>44632</v>
       </c>
       <c r="J14" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -2106,23 +1440,23 @@
       <c r="B15" t="s">
         <v>24</v>
       </c>
-      <c r="C15" t="s">
-        <v>213</v>
+      <c r="C15">
+        <v>6941399073517</v>
       </c>
       <c r="F15" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G15" t="s">
-        <v>389</v>
-      </c>
-      <c r="H15" t="s">
-        <v>399</v>
+        <v>210</v>
+      </c>
+      <c r="H15">
+        <v>39</v>
       </c>
       <c r="I15" s="2">
         <v>44632</v>
       </c>
       <c r="J15" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -2135,23 +1469,23 @@
       <c r="B16" t="s">
         <v>25</v>
       </c>
-      <c r="C16" t="s">
-        <v>213</v>
+      <c r="C16">
+        <v>6941399073517</v>
       </c>
       <c r="F16" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G16" t="s">
-        <v>389</v>
-      </c>
-      <c r="H16" t="s">
-        <v>400</v>
+        <v>210</v>
+      </c>
+      <c r="H16">
+        <v>28</v>
       </c>
       <c r="I16" s="2">
         <v>44632</v>
       </c>
       <c r="J16" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -2164,26 +1498,26 @@
       <c r="B17" t="s">
         <v>26</v>
       </c>
-      <c r="C17" t="s">
-        <v>203</v>
+      <c r="C17">
+        <v>6941399073524</v>
       </c>
       <c r="D17" t="s">
-        <v>384</v>
+        <v>206</v>
       </c>
       <c r="F17" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G17" t="s">
-        <v>389</v>
-      </c>
-      <c r="H17" t="s">
-        <v>401</v>
+        <v>210</v>
+      </c>
+      <c r="H17">
+        <v>23</v>
       </c>
       <c r="I17" s="2">
         <v>44632</v>
       </c>
       <c r="J17" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -2196,26 +1530,26 @@
       <c r="B18" t="s">
         <v>27</v>
       </c>
-      <c r="C18" t="s">
-        <v>213</v>
+      <c r="C18">
+        <v>6941399073517</v>
       </c>
       <c r="D18" t="s">
-        <v>385</v>
+        <v>207</v>
       </c>
       <c r="F18" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G18" t="s">
-        <v>389</v>
-      </c>
-      <c r="H18" t="s">
-        <v>402</v>
+        <v>210</v>
+      </c>
+      <c r="H18">
+        <v>31</v>
       </c>
       <c r="I18" s="2">
         <v>44632</v>
       </c>
       <c r="J18" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -2228,23 +1562,23 @@
       <c r="B19" t="s">
         <v>28</v>
       </c>
-      <c r="C19" t="s">
-        <v>214</v>
+      <c r="C19">
+        <v>6941399056091</v>
       </c>
       <c r="F19" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G19" t="s">
-        <v>389</v>
-      </c>
-      <c r="H19" t="s">
-        <v>403</v>
+        <v>210</v>
+      </c>
+      <c r="H19">
+        <v>43</v>
       </c>
       <c r="I19" s="2">
         <v>44632</v>
       </c>
       <c r="J19" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -2257,23 +1591,23 @@
       <c r="B20" t="s">
         <v>29</v>
       </c>
-      <c r="C20" t="s">
-        <v>215</v>
+      <c r="C20">
+        <v>6944284667877</v>
       </c>
       <c r="F20" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G20" t="s">
-        <v>389</v>
-      </c>
-      <c r="H20" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H20">
+        <v>20</v>
       </c>
       <c r="I20" s="2">
         <v>44632</v>
       </c>
       <c r="J20" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -2286,23 +1620,23 @@
       <c r="B21" t="s">
         <v>30</v>
       </c>
-      <c r="C21" t="s">
-        <v>216</v>
+      <c r="C21">
+        <v>6941399034723</v>
       </c>
       <c r="F21" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s">
-        <v>389</v>
-      </c>
-      <c r="H21" t="s">
-        <v>396</v>
+        <v>210</v>
+      </c>
+      <c r="H21">
+        <v>100</v>
       </c>
       <c r="I21" s="2">
         <v>44632</v>
       </c>
       <c r="J21" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -2315,23 +1649,23 @@
       <c r="B22" t="s">
         <v>31</v>
       </c>
-      <c r="C22" t="s">
-        <v>217</v>
+      <c r="C22">
+        <v>4718005881512</v>
       </c>
       <c r="F22" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G22" t="s">
-        <v>389</v>
-      </c>
-      <c r="H22" t="s">
-        <v>404</v>
+        <v>210</v>
+      </c>
+      <c r="H22">
+        <v>300</v>
       </c>
       <c r="I22" s="2">
         <v>44632</v>
       </c>
       <c r="J22" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -2344,23 +1678,23 @@
       <c r="B23" t="s">
         <v>32</v>
       </c>
-      <c r="C23" t="s">
-        <v>217</v>
+      <c r="C23">
+        <v>4718005881512</v>
       </c>
       <c r="F23" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G23" t="s">
-        <v>389</v>
-      </c>
-      <c r="H23" t="s">
-        <v>404</v>
+        <v>210</v>
+      </c>
+      <c r="H23">
+        <v>300</v>
       </c>
       <c r="I23" s="2">
         <v>44632</v>
       </c>
       <c r="J23" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -2373,23 +1707,23 @@
       <c r="B24" t="s">
         <v>33</v>
       </c>
-      <c r="C24" t="s">
-        <v>218</v>
+      <c r="C24">
+        <v>8851753099870</v>
       </c>
       <c r="F24" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G24" t="s">
-        <v>389</v>
-      </c>
-      <c r="H24" t="s">
-        <v>405</v>
+        <v>210</v>
+      </c>
+      <c r="H24">
+        <v>48</v>
       </c>
       <c r="I24" s="2">
         <v>44632</v>
       </c>
       <c r="J24" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -2402,23 +1736,23 @@
       <c r="B25" t="s">
         <v>34</v>
       </c>
-      <c r="C25" t="s">
-        <v>219</v>
+      <c r="C25">
+        <v>8993175531993</v>
       </c>
       <c r="F25" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G25" t="s">
-        <v>389</v>
-      </c>
-      <c r="H25" t="s">
-        <v>406</v>
+        <v>210</v>
+      </c>
+      <c r="H25">
+        <v>24</v>
       </c>
       <c r="I25" s="2">
         <v>44632</v>
       </c>
       <c r="J25" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -2431,23 +1765,23 @@
       <c r="B26" t="s">
         <v>35</v>
       </c>
-      <c r="C26" t="s">
-        <v>220</v>
+      <c r="C26">
+        <v>4712466017855</v>
       </c>
       <c r="F26" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G26" t="s">
-        <v>389</v>
-      </c>
-      <c r="H26" t="s">
-        <v>406</v>
+        <v>210</v>
+      </c>
+      <c r="H26">
+        <v>24</v>
       </c>
       <c r="I26" s="2">
         <v>44632</v>
       </c>
       <c r="J26" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K26">
         <v>0</v>
@@ -2460,23 +1794,23 @@
       <c r="B27" t="s">
         <v>36</v>
       </c>
-      <c r="C27" t="s">
-        <v>221</v>
+      <c r="C27">
+        <v>4710375110285</v>
       </c>
       <c r="F27" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G27" t="s">
-        <v>389</v>
-      </c>
-      <c r="H27" t="s">
-        <v>407</v>
+        <v>210</v>
+      </c>
+      <c r="H27">
+        <v>400</v>
       </c>
       <c r="I27" s="2">
         <v>44632</v>
       </c>
       <c r="J27" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K27">
         <v>0</v>
@@ -2489,23 +1823,23 @@
       <c r="B28" t="s">
         <v>37</v>
       </c>
-      <c r="C28" t="s">
-        <v>222</v>
+      <c r="C28">
+        <v>4895229107168</v>
       </c>
       <c r="F28" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G28" t="s">
-        <v>389</v>
-      </c>
-      <c r="H28" t="s">
-        <v>408</v>
+        <v>210</v>
+      </c>
+      <c r="H28">
+        <v>150</v>
       </c>
       <c r="I28" s="2">
         <v>44632</v>
       </c>
       <c r="J28" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K28">
         <v>0</v>
@@ -2518,23 +1852,23 @@
       <c r="B29" t="s">
         <v>38</v>
       </c>
-      <c r="C29" t="s">
-        <v>223</v>
+      <c r="C29">
+        <v>6970274910159</v>
       </c>
       <c r="F29" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G29" t="s">
-        <v>389</v>
-      </c>
-      <c r="H29" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H29">
+        <v>20</v>
       </c>
       <c r="I29" s="2">
         <v>44632</v>
       </c>
       <c r="J29" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -2547,23 +1881,23 @@
       <c r="B30" t="s">
         <v>39</v>
       </c>
-      <c r="C30" t="s">
-        <v>224</v>
+      <c r="C30">
+        <v>4717385949485</v>
       </c>
       <c r="F30" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G30" t="s">
-        <v>389</v>
-      </c>
-      <c r="H30" t="s">
-        <v>396</v>
+        <v>210</v>
+      </c>
+      <c r="H30">
+        <v>100</v>
       </c>
       <c r="I30" s="2">
         <v>44632</v>
       </c>
       <c r="J30" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -2576,23 +1910,23 @@
       <c r="B31" t="s">
         <v>40</v>
       </c>
-      <c r="C31" t="s">
-        <v>225</v>
+      <c r="C31">
+        <v>4717385949522</v>
       </c>
       <c r="F31" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G31" t="s">
-        <v>389</v>
-      </c>
-      <c r="H31" t="s">
-        <v>396</v>
+        <v>210</v>
+      </c>
+      <c r="H31">
+        <v>100</v>
       </c>
       <c r="I31" s="2">
         <v>44632</v>
       </c>
       <c r="J31" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K31">
         <v>0</v>
@@ -2605,23 +1939,23 @@
       <c r="B32" t="s">
         <v>41</v>
       </c>
-      <c r="C32" t="s">
-        <v>226</v>
+      <c r="C32">
+        <v>4895229119734</v>
       </c>
       <c r="F32" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G32" t="s">
-        <v>389</v>
-      </c>
-      <c r="H32" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="H32">
+        <v>2</v>
       </c>
       <c r="I32" s="2">
         <v>44632</v>
       </c>
       <c r="J32" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K32">
         <v>0</v>
@@ -2634,23 +1968,23 @@
       <c r="B33" t="s">
         <v>42</v>
       </c>
-      <c r="C33" t="s">
-        <v>227</v>
+      <c r="C33">
+        <v>6951613981184</v>
       </c>
       <c r="F33" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G33" t="s">
-        <v>389</v>
-      </c>
-      <c r="H33" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="H33">
+        <v>2</v>
       </c>
       <c r="I33" s="2">
         <v>44632</v>
       </c>
       <c r="J33" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -2663,23 +1997,23 @@
       <c r="B34" t="s">
         <v>43</v>
       </c>
-      <c r="C34" t="s">
-        <v>228</v>
+      <c r="C34">
+        <v>4710004725293</v>
       </c>
       <c r="F34" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G34" t="s">
-        <v>389</v>
-      </c>
-      <c r="H34" t="s">
-        <v>394</v>
+        <v>210</v>
+      </c>
+      <c r="H34">
+        <v>4</v>
       </c>
       <c r="I34" s="2">
         <v>44632</v>
       </c>
       <c r="J34" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K34">
         <v>0</v>
@@ -2692,23 +2026,23 @@
       <c r="B35" t="s">
         <v>44</v>
       </c>
-      <c r="C35" t="s">
-        <v>229</v>
+      <c r="C35">
+        <v>4710004725316</v>
       </c>
       <c r="F35" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G35" t="s">
-        <v>389</v>
-      </c>
-      <c r="H35" t="s">
-        <v>392</v>
+        <v>210</v>
+      </c>
+      <c r="H35">
+        <v>5</v>
       </c>
       <c r="I35" s="2">
         <v>44632</v>
       </c>
       <c r="J35" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K35">
         <v>0</v>
@@ -2721,23 +2055,23 @@
       <c r="B36" t="s">
         <v>45</v>
       </c>
-      <c r="C36" t="s">
-        <v>230</v>
+      <c r="C36">
+        <v>4710004725330</v>
       </c>
       <c r="F36" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G36" t="s">
-        <v>389</v>
-      </c>
-      <c r="H36" t="s">
-        <v>410</v>
+        <v>210</v>
+      </c>
+      <c r="H36">
+        <v>10</v>
       </c>
       <c r="I36" s="2">
         <v>44632</v>
       </c>
       <c r="J36" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K36">
         <v>0</v>
@@ -2750,23 +2084,23 @@
       <c r="B37" t="s">
         <v>46</v>
       </c>
-      <c r="C37" t="s">
-        <v>231</v>
+      <c r="C37">
+        <v>4710004725279</v>
       </c>
       <c r="F37" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G37" t="s">
-        <v>389</v>
-      </c>
-      <c r="H37" t="s">
-        <v>411</v>
+        <v>210</v>
+      </c>
+      <c r="H37">
+        <v>3</v>
       </c>
       <c r="I37" s="2">
         <v>44632</v>
       </c>
       <c r="J37" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K37">
         <v>0</v>
@@ -2779,23 +2113,23 @@
       <c r="B38" t="s">
         <v>47</v>
       </c>
-      <c r="C38" t="s">
-        <v>232</v>
+      <c r="C38">
+        <v>4710004725323</v>
       </c>
       <c r="F38" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G38" t="s">
-        <v>389</v>
-      </c>
-      <c r="H38" t="s">
-        <v>392</v>
+        <v>210</v>
+      </c>
+      <c r="H38">
+        <v>5</v>
       </c>
       <c r="I38" s="2">
         <v>44632</v>
       </c>
       <c r="J38" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K38">
         <v>0</v>
@@ -2808,23 +2142,23 @@
       <c r="B39" t="s">
         <v>48</v>
       </c>
-      <c r="C39" t="s">
-        <v>233</v>
+      <c r="C39">
+        <v>4712883419461</v>
       </c>
       <c r="F39" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G39" t="s">
-        <v>389</v>
-      </c>
-      <c r="H39" t="s">
-        <v>412</v>
+        <v>210</v>
+      </c>
+      <c r="H39">
+        <v>1</v>
       </c>
       <c r="I39" s="2">
         <v>44632</v>
       </c>
       <c r="J39" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K39">
         <v>0</v>
@@ -2837,23 +2171,23 @@
       <c r="B40" t="s">
         <v>49</v>
       </c>
-      <c r="C40" t="s">
-        <v>234</v>
+      <c r="C40">
+        <v>4710004721165</v>
       </c>
       <c r="F40" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G40" t="s">
-        <v>389</v>
-      </c>
-      <c r="H40" t="s">
-        <v>411</v>
+        <v>210</v>
+      </c>
+      <c r="H40">
+        <v>3</v>
       </c>
       <c r="I40" s="2">
         <v>44632</v>
       </c>
       <c r="J40" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K40">
         <v>0</v>
@@ -2866,23 +2200,23 @@
       <c r="B41" t="s">
         <v>50</v>
       </c>
-      <c r="C41" t="s">
-        <v>235</v>
+      <c r="C41">
+        <v>4895229101470</v>
       </c>
       <c r="F41" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G41" t="s">
-        <v>389</v>
-      </c>
-      <c r="H41" t="s">
-        <v>411</v>
+        <v>210</v>
+      </c>
+      <c r="H41">
+        <v>3</v>
       </c>
       <c r="I41" s="2">
         <v>44632</v>
       </c>
       <c r="J41" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K41">
         <v>0</v>
@@ -2895,23 +2229,23 @@
       <c r="B42" t="s">
         <v>51</v>
       </c>
-      <c r="C42" t="s">
-        <v>236</v>
+      <c r="C42">
+        <v>4710004724920</v>
       </c>
       <c r="F42" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G42" t="s">
-        <v>389</v>
-      </c>
-      <c r="H42" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="H42">
+        <v>2</v>
       </c>
       <c r="I42" s="2">
         <v>44632</v>
       </c>
       <c r="J42" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K42">
         <v>0</v>
@@ -2924,23 +2258,23 @@
       <c r="B43" t="s">
         <v>52</v>
       </c>
-      <c r="C43" t="s">
-        <v>237</v>
+      <c r="C43">
+        <v>4712883419492</v>
       </c>
       <c r="F43" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G43" t="s">
-        <v>389</v>
-      </c>
-      <c r="H43" t="s">
-        <v>412</v>
+        <v>210</v>
+      </c>
+      <c r="H43">
+        <v>1</v>
       </c>
       <c r="I43" s="2">
         <v>44632</v>
       </c>
       <c r="J43" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K43">
         <v>0</v>
@@ -2953,23 +2287,23 @@
       <c r="B44" t="s">
         <v>53</v>
       </c>
-      <c r="C44" t="s">
-        <v>238</v>
+      <c r="C44">
+        <v>4710004720328</v>
       </c>
       <c r="F44" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G44" t="s">
-        <v>389</v>
-      </c>
-      <c r="H44" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="H44">
+        <v>2</v>
       </c>
       <c r="I44" s="2">
         <v>44632</v>
       </c>
       <c r="J44" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K44">
         <v>0</v>
@@ -2982,23 +2316,23 @@
       <c r="B45" t="s">
         <v>54</v>
       </c>
-      <c r="C45" t="s">
-        <v>239</v>
+      <c r="C45">
+        <v>4710004720694</v>
       </c>
       <c r="F45" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G45" t="s">
-        <v>389</v>
-      </c>
-      <c r="H45" t="s">
-        <v>412</v>
+        <v>210</v>
+      </c>
+      <c r="H45">
+        <v>1</v>
       </c>
       <c r="I45" s="2">
         <v>44632</v>
       </c>
       <c r="J45" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K45">
         <v>0</v>
@@ -3011,23 +2345,23 @@
       <c r="B46" t="s">
         <v>55</v>
       </c>
-      <c r="C46" t="s">
-        <v>240</v>
+      <c r="C46">
+        <v>4710004723435</v>
       </c>
       <c r="F46" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G46" t="s">
-        <v>389</v>
-      </c>
-      <c r="H46" t="s">
-        <v>413</v>
+        <v>210</v>
+      </c>
+      <c r="H46">
+        <v>40</v>
       </c>
       <c r="I46" s="2">
         <v>44632</v>
       </c>
       <c r="J46" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K46">
         <v>0</v>
@@ -3040,23 +2374,23 @@
       <c r="B47" t="s">
         <v>56</v>
       </c>
-      <c r="C47" t="s">
-        <v>241</v>
+      <c r="C47">
+        <v>18001</v>
       </c>
       <c r="F47" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G47" t="s">
-        <v>389</v>
-      </c>
-      <c r="H47" t="s">
-        <v>410</v>
+        <v>210</v>
+      </c>
+      <c r="H47">
+        <v>10</v>
       </c>
       <c r="I47" s="2">
         <v>44632</v>
       </c>
       <c r="J47" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K47">
         <v>0</v>
@@ -3070,22 +2404,22 @@
         <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>242</v>
+        <v>201</v>
       </c>
       <c r="F48" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G48" t="s">
-        <v>389</v>
-      </c>
-      <c r="H48" t="s">
-        <v>398</v>
+        <v>210</v>
+      </c>
+      <c r="H48">
+        <v>50</v>
       </c>
       <c r="I48" s="2">
         <v>44632</v>
       </c>
       <c r="J48" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -3098,23 +2432,23 @@
       <c r="B49" t="s">
         <v>58</v>
       </c>
-      <c r="C49" t="s">
-        <v>243</v>
+      <c r="C49">
+        <v>15005</v>
       </c>
       <c r="F49" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G49" t="s">
-        <v>389</v>
-      </c>
-      <c r="H49" t="s">
-        <v>410</v>
+        <v>210</v>
+      </c>
+      <c r="H49">
+        <v>10</v>
       </c>
       <c r="I49" s="2">
         <v>44632</v>
       </c>
       <c r="J49" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K49">
         <v>0</v>
@@ -3127,23 +2461,23 @@
       <c r="B50" t="s">
         <v>59</v>
       </c>
-      <c r="C50" t="s">
-        <v>244</v>
+      <c r="C50">
+        <v>15002</v>
       </c>
       <c r="F50" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G50" t="s">
-        <v>389</v>
-      </c>
-      <c r="H50" t="s">
-        <v>410</v>
+        <v>210</v>
+      </c>
+      <c r="H50">
+        <v>10</v>
       </c>
       <c r="I50" s="2">
         <v>44632</v>
       </c>
       <c r="J50" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K50">
         <v>0</v>
@@ -3156,23 +2490,23 @@
       <c r="B51" t="s">
         <v>60</v>
       </c>
-      <c r="C51" t="s">
-        <v>245</v>
+      <c r="C51">
+        <v>15004</v>
       </c>
       <c r="F51" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G51" t="s">
-        <v>389</v>
-      </c>
-      <c r="H51" t="s">
-        <v>410</v>
+        <v>210</v>
+      </c>
+      <c r="H51">
+        <v>10</v>
       </c>
       <c r="I51" s="2">
         <v>44632</v>
       </c>
       <c r="J51" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K51">
         <v>0</v>
@@ -3185,23 +2519,23 @@
       <c r="B52" t="s">
         <v>61</v>
       </c>
-      <c r="C52" t="s">
-        <v>246</v>
+      <c r="C52">
+        <v>18006</v>
       </c>
       <c r="F52" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G52" t="s">
-        <v>389</v>
-      </c>
-      <c r="H52" t="s">
-        <v>410</v>
+        <v>210</v>
+      </c>
+      <c r="H52">
+        <v>10</v>
       </c>
       <c r="I52" s="2">
         <v>44632</v>
       </c>
       <c r="J52" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K52">
         <v>0</v>
@@ -3214,23 +2548,23 @@
       <c r="B53" t="s">
         <v>62</v>
       </c>
-      <c r="C53" t="s">
-        <v>247</v>
+      <c r="C53">
+        <v>18005</v>
       </c>
       <c r="F53" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G53" t="s">
-        <v>389</v>
-      </c>
-      <c r="H53" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H53">
+        <v>20</v>
       </c>
       <c r="I53" s="2">
         <v>44632</v>
       </c>
       <c r="J53" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K53">
         <v>0</v>
@@ -3243,23 +2577,23 @@
       <c r="B54" t="s">
         <v>63</v>
       </c>
-      <c r="C54" t="s">
-        <v>248</v>
+      <c r="C54">
+        <v>15003</v>
       </c>
       <c r="F54" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G54" t="s">
-        <v>389</v>
-      </c>
-      <c r="H54" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H54">
+        <v>20</v>
       </c>
       <c r="I54" s="2">
         <v>44632</v>
       </c>
       <c r="J54" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K54">
         <v>0</v>
@@ -3272,23 +2606,23 @@
       <c r="B55" t="s">
         <v>64</v>
       </c>
-      <c r="C55" t="s">
-        <v>249</v>
+      <c r="C55">
+        <v>15006</v>
       </c>
       <c r="F55" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G55" t="s">
-        <v>389</v>
-      </c>
-      <c r="H55" t="s">
-        <v>410</v>
+        <v>210</v>
+      </c>
+      <c r="H55">
+        <v>10</v>
       </c>
       <c r="I55" s="2">
         <v>44632</v>
       </c>
       <c r="J55" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K55">
         <v>0</v>
@@ -3301,23 +2635,23 @@
       <c r="B56" t="s">
         <v>65</v>
       </c>
-      <c r="C56" t="s">
-        <v>250</v>
+      <c r="C56">
+        <v>4710036395440</v>
       </c>
       <c r="F56" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G56" t="s">
-        <v>389</v>
-      </c>
-      <c r="H56" t="s">
-        <v>414</v>
+        <v>210</v>
+      </c>
+      <c r="H56">
+        <v>240</v>
       </c>
       <c r="I56" s="2">
         <v>44632</v>
       </c>
       <c r="J56" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K56">
         <v>0</v>
@@ -3330,23 +2664,23 @@
       <c r="B57" t="s">
         <v>66</v>
       </c>
-      <c r="C57" t="s">
-        <v>251</v>
+      <c r="C57">
+        <v>4710114811541</v>
       </c>
       <c r="F57" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G57" t="s">
-        <v>389</v>
-      </c>
-      <c r="H57" t="s">
-        <v>415</v>
+        <v>210</v>
+      </c>
+      <c r="H57">
+        <v>120</v>
       </c>
       <c r="I57" s="2">
         <v>44632</v>
       </c>
       <c r="J57" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K57">
         <v>0</v>
@@ -3359,23 +2693,23 @@
       <c r="B58" t="s">
         <v>67</v>
       </c>
-      <c r="C58" t="s">
-        <v>252</v>
+      <c r="C58">
+        <v>14710036561798</v>
       </c>
       <c r="F58" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G58" t="s">
-        <v>389</v>
-      </c>
-      <c r="H58" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H58">
+        <v>20</v>
       </c>
       <c r="I58" s="2">
         <v>44632</v>
       </c>
       <c r="J58" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K58">
         <v>0</v>
@@ -3388,23 +2722,23 @@
       <c r="B59" t="s">
         <v>68</v>
       </c>
-      <c r="C59" t="s">
-        <v>253</v>
+      <c r="C59">
+        <v>4710036394924</v>
       </c>
       <c r="F59" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G59" t="s">
-        <v>389</v>
-      </c>
-      <c r="H59" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H59">
+        <v>20</v>
       </c>
       <c r="I59" s="2">
         <v>44632</v>
       </c>
       <c r="J59" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -3417,23 +2751,23 @@
       <c r="B60" t="s">
         <v>69</v>
       </c>
-      <c r="C60" t="s">
-        <v>254</v>
+      <c r="C60">
+        <v>14710036561774</v>
       </c>
       <c r="F60" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G60" t="s">
-        <v>389</v>
-      </c>
-      <c r="H60" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H60">
+        <v>20</v>
       </c>
       <c r="I60" s="2">
         <v>44632</v>
       </c>
       <c r="J60" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -3446,23 +2780,23 @@
       <c r="B61" t="s">
         <v>70</v>
       </c>
-      <c r="C61" t="s">
-        <v>255</v>
+      <c r="C61">
+        <v>4710114880684</v>
       </c>
       <c r="F61" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G61" t="s">
-        <v>389</v>
-      </c>
-      <c r="H61" t="s">
-        <v>415</v>
+        <v>210</v>
+      </c>
+      <c r="H61">
+        <v>120</v>
       </c>
       <c r="I61" s="2">
         <v>44632</v>
       </c>
       <c r="J61" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -3475,23 +2809,23 @@
       <c r="B62" t="s">
         <v>71</v>
       </c>
-      <c r="C62" t="s">
-        <v>256</v>
+      <c r="C62">
+        <v>4710036561777</v>
       </c>
       <c r="F62" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G62" t="s">
-        <v>389</v>
-      </c>
-      <c r="H62" t="s">
-        <v>416</v>
+        <v>210</v>
+      </c>
+      <c r="H62">
+        <v>32</v>
       </c>
       <c r="I62" s="2">
         <v>44632</v>
       </c>
       <c r="J62" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K62">
         <v>0</v>
@@ -3504,23 +2838,23 @@
       <c r="B63" t="s">
         <v>72</v>
       </c>
-      <c r="C63" t="s">
-        <v>257</v>
+      <c r="C63">
+        <v>4710036561791</v>
       </c>
       <c r="F63" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G63" t="s">
-        <v>389</v>
-      </c>
-      <c r="H63" t="s">
-        <v>416</v>
+        <v>210</v>
+      </c>
+      <c r="H63">
+        <v>32</v>
       </c>
       <c r="I63" s="2">
         <v>44632</v>
       </c>
       <c r="J63" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K63">
         <v>0</v>
@@ -3533,23 +2867,23 @@
       <c r="B64" t="s">
         <v>73</v>
       </c>
-      <c r="C64" t="s">
-        <v>258</v>
+      <c r="C64">
+        <v>4710114882350</v>
       </c>
       <c r="F64" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G64" t="s">
-        <v>389</v>
-      </c>
-      <c r="H64" t="s">
-        <v>417</v>
+        <v>210</v>
+      </c>
+      <c r="H64">
+        <v>320</v>
       </c>
       <c r="I64" s="2">
         <v>44632</v>
       </c>
       <c r="J64" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K64">
         <v>0</v>
@@ -3562,23 +2896,23 @@
       <c r="B65" t="s">
         <v>74</v>
       </c>
-      <c r="C65" t="s">
-        <v>259</v>
+      <c r="C65">
+        <v>4710114862178</v>
       </c>
       <c r="F65" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G65" t="s">
-        <v>389</v>
-      </c>
-      <c r="H65" t="s">
-        <v>418</v>
+        <v>210</v>
+      </c>
+      <c r="H65">
+        <v>224</v>
       </c>
       <c r="I65" s="2">
         <v>44632</v>
       </c>
       <c r="J65" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K65">
         <v>0</v>
@@ -3591,23 +2925,23 @@
       <c r="B66" t="s">
         <v>75</v>
       </c>
-      <c r="C66" t="s">
-        <v>260</v>
+      <c r="C66">
+        <v>4710036395433</v>
       </c>
       <c r="F66" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G66" t="s">
-        <v>389</v>
-      </c>
-      <c r="H66" t="s">
-        <v>404</v>
+        <v>210</v>
+      </c>
+      <c r="H66">
+        <v>300</v>
       </c>
       <c r="I66" s="2">
         <v>44632</v>
       </c>
       <c r="J66" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K66">
         <v>0</v>
@@ -3620,23 +2954,23 @@
       <c r="B67" t="s">
         <v>76</v>
       </c>
-      <c r="C67" t="s">
-        <v>213</v>
+      <c r="C67">
+        <v>6941399073517</v>
       </c>
       <c r="F67" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G67" t="s">
-        <v>389</v>
-      </c>
-      <c r="H67" t="s">
-        <v>402</v>
+        <v>210</v>
+      </c>
+      <c r="H67">
+        <v>31</v>
       </c>
       <c r="I67" s="2">
         <v>44632</v>
       </c>
       <c r="J67" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -3649,23 +2983,23 @@
       <c r="B68" t="s">
         <v>77</v>
       </c>
-      <c r="C68" t="s">
-        <v>203</v>
+      <c r="C68">
+        <v>6941399073524</v>
       </c>
       <c r="F68" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G68" t="s">
-        <v>389</v>
-      </c>
-      <c r="H68" t="s">
-        <v>401</v>
+        <v>210</v>
+      </c>
+      <c r="H68">
+        <v>23</v>
       </c>
       <c r="I68" s="2">
         <v>44632</v>
       </c>
       <c r="J68" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K68">
         <v>0</v>
@@ -3678,23 +3012,23 @@
       <c r="B69" t="s">
         <v>78</v>
       </c>
-      <c r="C69" t="s">
-        <v>261</v>
+      <c r="C69">
+        <v>4715635313604</v>
       </c>
       <c r="F69" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G69" t="s">
-        <v>389</v>
-      </c>
-      <c r="H69" t="s">
-        <v>411</v>
+        <v>210</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
       </c>
       <c r="I69" s="2">
         <v>44632</v>
       </c>
       <c r="J69" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K69">
         <v>0</v>
@@ -3707,23 +3041,23 @@
       <c r="B70" t="s">
         <v>79</v>
       </c>
-      <c r="D70" t="s">
-        <v>386</v>
+      <c r="D70">
+        <v>6</v>
       </c>
       <c r="F70" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G70" t="s">
-        <v>389</v>
-      </c>
-      <c r="H70" t="s">
-        <v>386</v>
+        <v>210</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
       </c>
       <c r="I70" s="2">
         <v>44632</v>
       </c>
       <c r="J70" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K70">
         <v>0</v>
@@ -3736,23 +3070,23 @@
       <c r="B71" t="s">
         <v>80</v>
       </c>
-      <c r="C71" t="s">
-        <v>262</v>
+      <c r="C71">
+        <v>4715635314083</v>
       </c>
       <c r="F71" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G71" t="s">
-        <v>389</v>
-      </c>
-      <c r="H71" t="s">
-        <v>410</v>
+        <v>210</v>
+      </c>
+      <c r="H71">
+        <v>10</v>
       </c>
       <c r="I71" s="2">
         <v>44632</v>
       </c>
       <c r="J71" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K71">
         <v>0</v>
@@ -3765,23 +3099,23 @@
       <c r="B72" t="s">
         <v>81</v>
       </c>
-      <c r="C72" t="s">
-        <v>263</v>
+      <c r="C72">
+        <v>4715635313178</v>
       </c>
       <c r="F72" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G72" t="s">
-        <v>389</v>
-      </c>
-      <c r="H72" t="s">
-        <v>411</v>
+        <v>210</v>
+      </c>
+      <c r="H72">
+        <v>3</v>
       </c>
       <c r="I72" s="2">
         <v>44632</v>
       </c>
       <c r="J72" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -3794,23 +3128,23 @@
       <c r="B73" t="s">
         <v>82</v>
       </c>
-      <c r="C73" t="s">
-        <v>264</v>
+      <c r="C73">
+        <v>4715635313499</v>
       </c>
       <c r="F73" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G73" t="s">
-        <v>389</v>
-      </c>
-      <c r="H73" t="s">
-        <v>411</v>
+        <v>210</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
       </c>
       <c r="I73" s="2">
         <v>44632</v>
       </c>
       <c r="J73" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K73">
         <v>0</v>
@@ -3823,23 +3157,23 @@
       <c r="B74" t="s">
         <v>83</v>
       </c>
-      <c r="C74" t="s">
-        <v>265</v>
+      <c r="C74">
+        <v>4715635312591</v>
       </c>
       <c r="F74" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G74" t="s">
-        <v>389</v>
-      </c>
-      <c r="H74" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="H74">
+        <v>2</v>
       </c>
       <c r="I74" s="2">
         <v>44632</v>
       </c>
       <c r="J74" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -3852,23 +3186,23 @@
       <c r="B75" t="s">
         <v>84</v>
       </c>
-      <c r="C75" t="s">
-        <v>266</v>
+      <c r="C75">
+        <v>4715635312577</v>
       </c>
       <c r="F75" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G75" t="s">
-        <v>389</v>
-      </c>
-      <c r="H75" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="H75">
+        <v>2</v>
       </c>
       <c r="I75" s="2">
         <v>44632</v>
       </c>
       <c r="J75" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -3881,23 +3215,23 @@
       <c r="B76" t="s">
         <v>85</v>
       </c>
-      <c r="C76" t="s">
-        <v>267</v>
+      <c r="C76">
+        <v>4715635310207</v>
       </c>
       <c r="F76" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G76" t="s">
-        <v>389</v>
-      </c>
-      <c r="H76" t="s">
-        <v>413</v>
+        <v>210</v>
+      </c>
+      <c r="H76">
+        <v>40</v>
       </c>
       <c r="I76" s="2">
         <v>44632</v>
       </c>
       <c r="J76" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -3910,23 +3244,23 @@
       <c r="B77" t="s">
         <v>86</v>
       </c>
-      <c r="C77" t="s">
-        <v>268</v>
+      <c r="C77">
+        <v>4715635314113</v>
       </c>
       <c r="F77" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G77" t="s">
-        <v>389</v>
-      </c>
-      <c r="H77" t="s">
-        <v>394</v>
+        <v>210</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
       </c>
       <c r="I77" s="2">
         <v>44632</v>
       </c>
       <c r="J77" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K77">
         <v>0</v>
@@ -3939,23 +3273,23 @@
       <c r="B78" t="s">
         <v>87</v>
       </c>
-      <c r="C78" t="s">
-        <v>269</v>
+      <c r="C78">
+        <v>4715635313109</v>
       </c>
       <c r="F78" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G78" t="s">
-        <v>389</v>
-      </c>
-      <c r="H78" t="s">
-        <v>394</v>
+        <v>210</v>
+      </c>
+      <c r="H78">
+        <v>4</v>
       </c>
       <c r="I78" s="2">
         <v>44632</v>
       </c>
       <c r="J78" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K78">
         <v>0</v>
@@ -3968,20 +3302,20 @@
       <c r="B79" t="s">
         <v>88</v>
       </c>
-      <c r="C79" t="s">
-        <v>270</v>
+      <c r="C79">
+        <v>8801046377017</v>
       </c>
       <c r="F79" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G79" t="s">
-        <v>389</v>
+        <v>210</v>
       </c>
       <c r="I79" s="2">
         <v>44632</v>
       </c>
       <c r="J79" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K79">
         <v>0</v>
@@ -3994,20 +3328,20 @@
       <c r="B80" t="s">
         <v>89</v>
       </c>
-      <c r="C80" t="s">
-        <v>271</v>
+      <c r="C80">
+        <v>8801046902080</v>
       </c>
       <c r="F80" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G80" t="s">
-        <v>389</v>
+        <v>210</v>
       </c>
       <c r="I80" s="2">
         <v>44632</v>
       </c>
       <c r="J80" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K80">
         <v>0</v>
@@ -4020,20 +3354,20 @@
       <c r="B81" t="s">
         <v>90</v>
       </c>
-      <c r="C81" t="s">
-        <v>272</v>
+      <c r="C81">
+        <v>8801046353752</v>
       </c>
       <c r="F81" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G81" t="s">
-        <v>389</v>
+        <v>210</v>
       </c>
       <c r="I81" s="2">
         <v>44632</v>
       </c>
       <c r="J81" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -4046,23 +3380,23 @@
       <c r="B82" t="s">
         <v>91</v>
       </c>
-      <c r="C82" t="s">
-        <v>273</v>
+      <c r="C82">
+        <v>4713737251275</v>
       </c>
       <c r="F82" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G82" t="s">
-        <v>389</v>
-      </c>
-      <c r="H82" t="s">
-        <v>419</v>
+        <v>210</v>
+      </c>
+      <c r="H82">
+        <v>60</v>
       </c>
       <c r="I82" s="2">
         <v>44632</v>
       </c>
       <c r="J82" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K82">
         <v>0</v>
@@ -4075,23 +3409,23 @@
       <c r="B83" t="s">
         <v>92</v>
       </c>
-      <c r="C83" t="s">
-        <v>274</v>
+      <c r="C83">
+        <v>4713737018953</v>
       </c>
       <c r="F83" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G83" t="s">
-        <v>389</v>
-      </c>
-      <c r="H83" t="s">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="H83">
+        <v>12</v>
       </c>
       <c r="I83" s="2">
         <v>44632</v>
       </c>
       <c r="J83" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K83">
         <v>0</v>
@@ -4104,23 +3438,23 @@
       <c r="B84" t="s">
         <v>93</v>
       </c>
-      <c r="C84" t="s">
-        <v>275</v>
+      <c r="C84">
+        <v>736150000316</v>
       </c>
       <c r="F84" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G84" t="s">
-        <v>389</v>
-      </c>
-      <c r="H84" t="s">
-        <v>421</v>
+        <v>210</v>
+      </c>
+      <c r="H84">
+        <v>135</v>
       </c>
       <c r="I84" s="2">
         <v>44632</v>
       </c>
       <c r="J84" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K84">
         <v>0</v>
@@ -4133,23 +3467,23 @@
       <c r="B85" t="s">
         <v>94</v>
       </c>
-      <c r="C85" t="s">
-        <v>276</v>
+      <c r="C85">
+        <v>887167485525</v>
       </c>
       <c r="F85" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G85" t="s">
-        <v>389</v>
-      </c>
-      <c r="H85" t="s">
-        <v>396</v>
+        <v>210</v>
+      </c>
+      <c r="H85">
+        <v>100</v>
       </c>
       <c r="I85" s="2">
         <v>44632</v>
       </c>
       <c r="J85" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K85">
         <v>0</v>
@@ -4162,23 +3496,23 @@
       <c r="B86" t="s">
         <v>95</v>
       </c>
-      <c r="C86" t="s">
-        <v>277</v>
+      <c r="C86">
+        <v>717334242258</v>
       </c>
       <c r="F86" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G86" t="s">
-        <v>389</v>
-      </c>
-      <c r="H86" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H86">
+        <v>20</v>
       </c>
       <c r="I86" s="2">
         <v>44632</v>
       </c>
       <c r="J86" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K86">
         <v>0</v>
@@ -4191,23 +3525,23 @@
       <c r="B87" t="s">
         <v>96</v>
       </c>
-      <c r="C87" t="s">
-        <v>278</v>
+      <c r="C87">
+        <v>717334240773</v>
       </c>
       <c r="F87" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G87" t="s">
-        <v>389</v>
-      </c>
-      <c r="H87" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H87">
+        <v>20</v>
       </c>
       <c r="I87" s="2">
         <v>44632</v>
       </c>
       <c r="J87" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K87">
         <v>0</v>
@@ -4220,23 +3554,23 @@
       <c r="B88" t="s">
         <v>97</v>
       </c>
-      <c r="C88" t="s">
-        <v>279</v>
+      <c r="C88">
+        <v>717334242272</v>
       </c>
       <c r="F88" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G88" t="s">
-        <v>389</v>
-      </c>
-      <c r="H88" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H88">
+        <v>20</v>
       </c>
       <c r="I88" s="2">
         <v>44632</v>
       </c>
       <c r="J88" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K88">
         <v>0</v>
@@ -4249,26 +3583,26 @@
       <c r="B89" t="s">
         <v>98</v>
       </c>
-      <c r="C89" t="s">
-        <v>280</v>
+      <c r="C89">
+        <v>4710405920211</v>
       </c>
       <c r="D89" t="s">
-        <v>387</v>
+        <v>208</v>
       </c>
       <c r="F89" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G89" t="s">
-        <v>389</v>
-      </c>
-      <c r="H89" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="H89">
+        <v>2</v>
       </c>
       <c r="I89" s="2">
         <v>44632</v>
       </c>
       <c r="J89" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K89">
         <v>0</v>
@@ -4281,23 +3615,23 @@
       <c r="B90" t="s">
         <v>99</v>
       </c>
-      <c r="C90" t="s">
-        <v>281</v>
+      <c r="C90">
+        <v>4710405920259</v>
       </c>
       <c r="F90" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G90" t="s">
-        <v>389</v>
-      </c>
-      <c r="H90" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="H90">
+        <v>2</v>
       </c>
       <c r="I90" s="2">
         <v>44632</v>
       </c>
       <c r="J90" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K90">
         <v>0</v>
@@ -4310,20 +3644,20 @@
       <c r="B91" t="s">
         <v>100</v>
       </c>
-      <c r="C91" t="s">
-        <v>282</v>
+      <c r="C91">
+        <v>740617321333</v>
       </c>
       <c r="F91" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G91" t="s">
-        <v>389</v>
+        <v>210</v>
       </c>
       <c r="I91" s="2">
         <v>44632</v>
       </c>
       <c r="J91" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K91">
         <v>0</v>
@@ -4336,20 +3670,20 @@
       <c r="B92" t="s">
         <v>101</v>
       </c>
-      <c r="C92" t="s">
-        <v>283</v>
+      <c r="C92">
+        <v>740617316841</v>
       </c>
       <c r="F92" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G92" t="s">
-        <v>389</v>
+        <v>210</v>
       </c>
       <c r="I92" s="2">
         <v>44632</v>
       </c>
       <c r="J92" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K92">
         <v>0</v>
@@ -4362,20 +3696,20 @@
       <c r="B93" t="s">
         <v>102</v>
       </c>
-      <c r="C93" t="s">
-        <v>284</v>
+      <c r="C93">
+        <v>649528901262</v>
       </c>
       <c r="F93" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G93" t="s">
-        <v>389</v>
+        <v>210</v>
       </c>
       <c r="I93" s="2">
         <v>44632</v>
       </c>
       <c r="J93" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K93">
         <v>0</v>
@@ -4388,23 +3722,23 @@
       <c r="B94" t="s">
         <v>103</v>
       </c>
-      <c r="C94" t="s">
-        <v>285</v>
+      <c r="C94">
+        <v>4902370548570</v>
       </c>
       <c r="F94" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G94" t="s">
-        <v>389</v>
-      </c>
-      <c r="H94" t="s">
-        <v>392</v>
+        <v>210</v>
+      </c>
+      <c r="H94">
+        <v>5</v>
       </c>
       <c r="I94" s="2">
         <v>44632</v>
       </c>
       <c r="J94" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K94">
         <v>0</v>
@@ -4417,20 +3751,20 @@
       <c r="B95" t="s">
         <v>104</v>
       </c>
-      <c r="C95" t="s">
-        <v>286</v>
+      <c r="C95">
+        <v>43736485</v>
       </c>
       <c r="F95" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G95" t="s">
-        <v>389</v>
+        <v>210</v>
       </c>
       <c r="I95" s="2">
         <v>44632</v>
       </c>
       <c r="J95" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K95">
         <v>0</v>
@@ -4443,20 +3777,20 @@
       <c r="B96" t="s">
         <v>105</v>
       </c>
-      <c r="C96" t="s">
-        <v>287</v>
+      <c r="C96">
+        <v>359901637</v>
       </c>
       <c r="F96" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G96" t="s">
-        <v>389</v>
+        <v>210</v>
       </c>
       <c r="I96" s="2">
         <v>44632</v>
       </c>
       <c r="J96" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K96">
         <v>0</v>
@@ -4469,20 +3803,20 @@
       <c r="B97" t="s">
         <v>106</v>
       </c>
-      <c r="C97" t="s">
-        <v>288</v>
+      <c r="C97">
+        <v>350500708</v>
       </c>
       <c r="F97" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G97" t="s">
-        <v>389</v>
+        <v>210</v>
       </c>
       <c r="I97" s="2">
         <v>44632</v>
       </c>
       <c r="J97" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K97">
         <v>0</v>
@@ -4496,22 +3830,22 @@
         <v>107</v>
       </c>
       <c r="C98" t="s">
-        <v>289</v>
+        <v>202</v>
       </c>
       <c r="F98" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G98" t="s">
-        <v>389</v>
-      </c>
-      <c r="H98" t="s">
-        <v>410</v>
+        <v>210</v>
+      </c>
+      <c r="H98">
+        <v>10</v>
       </c>
       <c r="I98" s="2">
         <v>44632</v>
       </c>
       <c r="J98" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K98">
         <v>0</v>
@@ -4524,23 +3858,23 @@
       <c r="B99" t="s">
         <v>108</v>
       </c>
-      <c r="C99" t="s">
-        <v>290</v>
+      <c r="C99">
+        <v>4970765135681</v>
       </c>
       <c r="F99" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G99" t="s">
-        <v>389</v>
-      </c>
-      <c r="H99" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H99">
+        <v>20</v>
       </c>
       <c r="I99" s="2">
         <v>44632</v>
       </c>
       <c r="J99" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K99">
         <v>0</v>
@@ -4553,23 +3887,23 @@
       <c r="B100" t="s">
         <v>109</v>
       </c>
-      <c r="C100" t="s">
-        <v>291</v>
+      <c r="C100">
+        <v>4970765131126</v>
       </c>
       <c r="F100" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G100" t="s">
-        <v>389</v>
-      </c>
-      <c r="H100" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H100">
+        <v>20</v>
       </c>
       <c r="I100" s="2">
         <v>44632</v>
       </c>
       <c r="J100" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K100">
         <v>0</v>
@@ -4582,23 +3916,23 @@
       <c r="B101" t="s">
         <v>110</v>
       </c>
-      <c r="C101" t="s">
-        <v>292</v>
+      <c r="C101">
+        <v>4713145008720</v>
       </c>
       <c r="F101" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G101" t="s">
-        <v>389</v>
-      </c>
-      <c r="H101" t="s">
-        <v>392</v>
+        <v>210</v>
+      </c>
+      <c r="H101">
+        <v>5</v>
       </c>
       <c r="I101" s="2">
         <v>44632</v>
       </c>
       <c r="J101" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K101">
         <v>0</v>
@@ -4611,23 +3945,23 @@
       <c r="B102" t="s">
         <v>111</v>
       </c>
-      <c r="C102" t="s">
-        <v>293</v>
+      <c r="C102">
+        <v>4713145008737</v>
       </c>
       <c r="F102" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G102" t="s">
-        <v>389</v>
-      </c>
-      <c r="H102" t="s">
-        <v>392</v>
+        <v>210</v>
+      </c>
+      <c r="H102">
+        <v>5</v>
       </c>
       <c r="I102" s="2">
         <v>44632</v>
       </c>
       <c r="J102" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K102">
         <v>0</v>
@@ -4640,23 +3974,23 @@
       <c r="B103" t="s">
         <v>112</v>
       </c>
-      <c r="C103" t="s">
-        <v>294</v>
+      <c r="C103">
+        <v>4974819059633</v>
       </c>
       <c r="F103" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G103" t="s">
-        <v>389</v>
-      </c>
-      <c r="H103" t="s">
-        <v>392</v>
+        <v>210</v>
+      </c>
+      <c r="H103">
+        <v>5</v>
       </c>
       <c r="I103" s="2">
         <v>44632</v>
       </c>
       <c r="J103" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K103">
         <v>0</v>
@@ -4669,23 +4003,23 @@
       <c r="B104" t="s">
         <v>113</v>
       </c>
-      <c r="C104" t="s">
-        <v>295</v>
+      <c r="C104">
+        <v>4974819767057</v>
       </c>
       <c r="F104" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G104" t="s">
-        <v>389</v>
-      </c>
-      <c r="H104" t="s">
-        <v>392</v>
+        <v>210</v>
+      </c>
+      <c r="H104">
+        <v>5</v>
       </c>
       <c r="I104" s="2">
         <v>44632</v>
       </c>
       <c r="J104" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K104">
         <v>0</v>
@@ -4698,23 +4032,23 @@
       <c r="B105" t="s">
         <v>114</v>
       </c>
-      <c r="C105" t="s">
-        <v>296</v>
+      <c r="C105">
+        <v>4710176042266</v>
       </c>
       <c r="F105" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G105" t="s">
-        <v>389</v>
-      </c>
-      <c r="H105" t="s">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="H105">
+        <v>12</v>
       </c>
       <c r="I105" s="2">
         <v>44632</v>
       </c>
       <c r="J105" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K105">
         <v>0</v>
@@ -4727,23 +4061,23 @@
       <c r="B106" t="s">
         <v>115</v>
       </c>
-      <c r="C106" t="s">
-        <v>297</v>
+      <c r="C106">
+        <v>4717293002869</v>
       </c>
       <c r="F106" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G106" t="s">
-        <v>389</v>
-      </c>
-      <c r="H106" t="s">
-        <v>411</v>
+        <v>210</v>
+      </c>
+      <c r="H106">
+        <v>3</v>
       </c>
       <c r="I106" s="2">
         <v>44632</v>
       </c>
       <c r="J106" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K106">
         <v>0</v>
@@ -4756,23 +4090,23 @@
       <c r="B107" t="s">
         <v>116</v>
       </c>
-      <c r="C107" t="s">
-        <v>298</v>
+      <c r="C107">
+        <v>4717293002838</v>
       </c>
       <c r="F107" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G107" t="s">
-        <v>389</v>
-      </c>
-      <c r="H107" t="s">
-        <v>411</v>
+        <v>210</v>
+      </c>
+      <c r="H107">
+        <v>3</v>
       </c>
       <c r="I107" s="2">
         <v>44632</v>
       </c>
       <c r="J107" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K107">
         <v>0</v>
@@ -4785,23 +4119,23 @@
       <c r="B108" t="s">
         <v>117</v>
       </c>
-      <c r="C108" t="s">
-        <v>299</v>
+      <c r="C108">
+        <v>4717293002852</v>
       </c>
       <c r="F108" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G108" t="s">
-        <v>389</v>
-      </c>
-      <c r="H108" t="s">
-        <v>411</v>
+        <v>210</v>
+      </c>
+      <c r="H108">
+        <v>3</v>
       </c>
       <c r="I108" s="2">
         <v>44632</v>
       </c>
       <c r="J108" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K108">
         <v>0</v>
@@ -4814,23 +4148,23 @@
       <c r="B109" t="s">
         <v>118</v>
       </c>
-      <c r="C109" t="s">
-        <v>300</v>
+      <c r="C109">
+        <v>8801204903935</v>
       </c>
       <c r="F109" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G109" t="s">
-        <v>389</v>
-      </c>
-      <c r="H109" t="s">
-        <v>406</v>
+        <v>210</v>
+      </c>
+      <c r="H109">
+        <v>24</v>
       </c>
       <c r="I109" s="2">
         <v>44632</v>
       </c>
       <c r="J109" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K109">
         <v>0</v>
@@ -4843,23 +4177,23 @@
       <c r="B110" t="s">
         <v>119</v>
       </c>
-      <c r="C110" t="s">
-        <v>301</v>
+      <c r="C110">
+        <v>8801204008661</v>
       </c>
       <c r="F110" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G110" t="s">
-        <v>389</v>
-      </c>
-      <c r="H110" t="s">
-        <v>410</v>
+        <v>210</v>
+      </c>
+      <c r="H110">
+        <v>10</v>
       </c>
       <c r="I110" s="2">
         <v>44632</v>
       </c>
       <c r="J110" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K110">
         <v>0</v>
@@ -4872,23 +4206,23 @@
       <c r="B111" t="s">
         <v>120</v>
       </c>
-      <c r="C111" t="s">
-        <v>302</v>
+      <c r="C111">
+        <v>8411114078953</v>
       </c>
       <c r="F111" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G111" t="s">
-        <v>389</v>
-      </c>
-      <c r="H111" t="s">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="H111">
+        <v>12</v>
       </c>
       <c r="I111" s="2">
         <v>44632</v>
       </c>
       <c r="J111" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K111">
         <v>0</v>
@@ -4901,23 +4235,23 @@
       <c r="B112" t="s">
         <v>121</v>
       </c>
-      <c r="C112" t="s">
-        <v>303</v>
+      <c r="C112">
+        <v>8801073143357</v>
       </c>
       <c r="F112" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G112" t="s">
-        <v>389</v>
-      </c>
-      <c r="H112" t="s">
-        <v>416</v>
+        <v>210</v>
+      </c>
+      <c r="H112">
+        <v>32</v>
       </c>
       <c r="I112" s="2">
         <v>44632</v>
       </c>
       <c r="J112" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K112">
         <v>0</v>
@@ -4930,23 +4264,23 @@
       <c r="B113" t="s">
         <v>122</v>
       </c>
-      <c r="C113" t="s">
-        <v>304</v>
+      <c r="C113">
+        <v>8809023461872</v>
       </c>
       <c r="F113" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G113" t="s">
-        <v>389</v>
-      </c>
-      <c r="H113" t="s">
-        <v>416</v>
+        <v>210</v>
+      </c>
+      <c r="H113">
+        <v>32</v>
       </c>
       <c r="I113" s="2">
         <v>44632</v>
       </c>
       <c r="J113" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K113">
         <v>0</v>
@@ -4959,23 +4293,23 @@
       <c r="B114" t="s">
         <v>123</v>
       </c>
-      <c r="C114" t="s">
-        <v>305</v>
+      <c r="C114">
+        <v>4901773100149</v>
       </c>
       <c r="F114" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G114" t="s">
-        <v>389</v>
-      </c>
-      <c r="H114" t="s">
-        <v>422</v>
+        <v>210</v>
+      </c>
+      <c r="H114">
+        <v>30</v>
       </c>
       <c r="I114" s="2">
         <v>44632</v>
       </c>
       <c r="J114" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K114">
         <v>0</v>
@@ -4988,23 +4322,23 @@
       <c r="B115" t="s">
         <v>124</v>
       </c>
-      <c r="C115" t="s">
-        <v>306</v>
+      <c r="C115">
+        <v>4711946900779</v>
       </c>
       <c r="F115" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G115" t="s">
-        <v>389</v>
-      </c>
-      <c r="H115" t="s">
-        <v>414</v>
+        <v>210</v>
+      </c>
+      <c r="H115">
+        <v>240</v>
       </c>
       <c r="I115" s="2">
         <v>44632</v>
       </c>
       <c r="J115" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K115">
         <v>0</v>
@@ -5017,23 +4351,23 @@
       <c r="B116" t="s">
         <v>125</v>
       </c>
-      <c r="C116" t="s">
-        <v>307</v>
+      <c r="C116">
+        <v>4903360222586</v>
       </c>
       <c r="F116" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G116" t="s">
-        <v>389</v>
-      </c>
-      <c r="H116" t="s">
-        <v>423</v>
+        <v>210</v>
+      </c>
+      <c r="H116">
+        <v>18</v>
       </c>
       <c r="I116" s="2">
         <v>44632</v>
       </c>
       <c r="J116" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K116">
         <v>0</v>
@@ -5046,23 +4380,23 @@
       <c r="B117" t="s">
         <v>126</v>
       </c>
-      <c r="C117" t="s">
-        <v>308</v>
+      <c r="C117">
+        <v>4903360222364</v>
       </c>
       <c r="F117" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G117" t="s">
-        <v>389</v>
-      </c>
-      <c r="H117" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H117">
+        <v>20</v>
       </c>
       <c r="I117" s="2">
         <v>44632</v>
       </c>
       <c r="J117" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K117">
         <v>0</v>
@@ -5075,23 +4409,23 @@
       <c r="B118" t="s">
         <v>127</v>
       </c>
-      <c r="C118" t="s">
-        <v>309</v>
+      <c r="C118">
+        <v>4714123396099</v>
       </c>
       <c r="F118" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G118" t="s">
-        <v>389</v>
-      </c>
-      <c r="H118" t="s">
-        <v>410</v>
+        <v>210</v>
+      </c>
+      <c r="H118">
+        <v>10</v>
       </c>
       <c r="I118" s="2">
         <v>44632</v>
       </c>
       <c r="J118" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K118">
         <v>0</v>
@@ -5104,23 +4438,23 @@
       <c r="B119" t="s">
         <v>128</v>
       </c>
-      <c r="C119" t="s">
-        <v>310</v>
+      <c r="C119">
+        <v>4715838251086</v>
       </c>
       <c r="F119" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G119" t="s">
-        <v>389</v>
-      </c>
-      <c r="H119" t="s">
-        <v>424</v>
+        <v>210</v>
+      </c>
+      <c r="H119">
+        <v>14</v>
       </c>
       <c r="I119" s="2">
         <v>44632</v>
       </c>
       <c r="J119" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K119">
         <v>0</v>
@@ -5133,23 +4467,23 @@
       <c r="B120" t="s">
         <v>129</v>
       </c>
-      <c r="C120" t="s">
-        <v>311</v>
+      <c r="C120">
+        <v>4901155411092</v>
       </c>
       <c r="F120" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G120" t="s">
-        <v>389</v>
-      </c>
-      <c r="H120" t="s">
-        <v>410</v>
+        <v>210</v>
+      </c>
+      <c r="H120">
+        <v>10</v>
       </c>
       <c r="I120" s="2">
         <v>44632</v>
       </c>
       <c r="J120" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K120">
         <v>0</v>
@@ -5162,23 +4496,23 @@
       <c r="B121" t="s">
         <v>130</v>
       </c>
-      <c r="C121" t="s">
-        <v>312</v>
+      <c r="C121">
+        <v>8411114063362</v>
       </c>
       <c r="F121" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G121" t="s">
-        <v>389</v>
-      </c>
-      <c r="H121" t="s">
-        <v>406</v>
+        <v>210</v>
+      </c>
+      <c r="H121">
+        <v>24</v>
       </c>
       <c r="I121" s="2">
         <v>44632</v>
       </c>
       <c r="J121" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K121">
         <v>0</v>
@@ -5191,23 +4525,23 @@
       <c r="B122" t="s">
         <v>131</v>
       </c>
-      <c r="C122" t="s">
-        <v>313</v>
+      <c r="C122">
+        <v>8411114087276</v>
       </c>
       <c r="F122" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G122" t="s">
-        <v>389</v>
-      </c>
-      <c r="H122" t="s">
-        <v>405</v>
+        <v>210</v>
+      </c>
+      <c r="H122">
+        <v>48</v>
       </c>
       <c r="I122" s="2">
         <v>44632</v>
       </c>
       <c r="J122" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K122">
         <v>0</v>
@@ -5220,23 +4554,23 @@
       <c r="B123" t="s">
         <v>132</v>
       </c>
-      <c r="C123" t="s">
-        <v>314</v>
+      <c r="C123">
+        <v>8411114089867</v>
       </c>
       <c r="F123" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G123" t="s">
-        <v>389</v>
-      </c>
-      <c r="H123" t="s">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="H123">
+        <v>12</v>
       </c>
       <c r="I123" s="2">
         <v>44632</v>
       </c>
       <c r="J123" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K123">
         <v>0</v>
@@ -5249,23 +4583,23 @@
       <c r="B124" t="s">
         <v>133</v>
       </c>
-      <c r="C124" t="s">
-        <v>315</v>
+      <c r="C124">
+        <v>8411114084725</v>
       </c>
       <c r="F124" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G124" t="s">
-        <v>389</v>
-      </c>
-      <c r="H124" t="s">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="H124">
+        <v>12</v>
       </c>
       <c r="I124" s="2">
         <v>44632</v>
       </c>
       <c r="J124" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K124">
         <v>0</v>
@@ -5278,23 +4612,23 @@
       <c r="B125" t="s">
         <v>134</v>
       </c>
-      <c r="C125" t="s">
-        <v>316</v>
+      <c r="C125">
+        <v>4711258094043</v>
       </c>
       <c r="F125" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G125" t="s">
-        <v>389</v>
-      </c>
-      <c r="H125" t="s">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="H125">
+        <v>12</v>
       </c>
       <c r="I125" s="2">
         <v>44632</v>
       </c>
       <c r="J125" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K125">
         <v>0</v>
@@ -5307,23 +4641,23 @@
       <c r="B126" t="s">
         <v>135</v>
       </c>
-      <c r="C126" t="s">
-        <v>317</v>
+      <c r="C126">
+        <v>4711258070047</v>
       </c>
       <c r="F126" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G126" t="s">
-        <v>389</v>
-      </c>
-      <c r="H126" t="s">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="H126">
+        <v>12</v>
       </c>
       <c r="I126" s="2">
         <v>44632</v>
       </c>
       <c r="J126" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K126">
         <v>0</v>
@@ -5336,23 +4670,23 @@
       <c r="B127" t="s">
         <v>136</v>
       </c>
-      <c r="C127" t="s">
-        <v>318</v>
+      <c r="C127">
+        <v>4713909081112</v>
       </c>
       <c r="F127" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G127" t="s">
-        <v>389</v>
-      </c>
-      <c r="H127" t="s">
-        <v>412</v>
+        <v>210</v>
+      </c>
+      <c r="H127">
+        <v>1</v>
       </c>
       <c r="I127" s="2">
         <v>44632</v>
       </c>
       <c r="J127" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K127">
         <v>0</v>
@@ -5365,23 +4699,23 @@
       <c r="B128" t="s">
         <v>137</v>
       </c>
-      <c r="C128" t="s">
-        <v>319</v>
+      <c r="C128">
+        <v>4711258080046</v>
       </c>
       <c r="F128" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G128" t="s">
-        <v>389</v>
-      </c>
-      <c r="H128" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="H128">
+        <v>2</v>
       </c>
       <c r="I128" s="2">
         <v>44632</v>
       </c>
       <c r="J128" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K128">
         <v>0</v>
@@ -5394,23 +4728,23 @@
       <c r="B129" t="s">
         <v>138</v>
       </c>
-      <c r="C129" t="s">
-        <v>320</v>
+      <c r="C129">
+        <v>4710407900068</v>
       </c>
       <c r="F129" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G129" t="s">
-        <v>389</v>
-      </c>
-      <c r="H129" t="s">
-        <v>412</v>
+        <v>210</v>
+      </c>
+      <c r="H129">
+        <v>1</v>
       </c>
       <c r="I129" s="2">
         <v>44632</v>
       </c>
       <c r="J129" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K129">
         <v>0</v>
@@ -5423,23 +4757,23 @@
       <c r="B130" t="s">
         <v>139</v>
       </c>
-      <c r="C130" t="s">
-        <v>321</v>
+      <c r="C130">
+        <v>4710006513133</v>
       </c>
       <c r="F130" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G130" t="s">
-        <v>389</v>
-      </c>
-      <c r="H130" t="s">
-        <v>411</v>
+        <v>210</v>
+      </c>
+      <c r="H130">
+        <v>3</v>
       </c>
       <c r="I130" s="2">
         <v>44632</v>
       </c>
       <c r="J130" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K130">
         <v>0</v>
@@ -5452,23 +4786,23 @@
       <c r="B131" t="s">
         <v>140</v>
       </c>
-      <c r="C131" t="s">
-        <v>322</v>
+      <c r="C131">
+        <v>4710006512853</v>
       </c>
       <c r="F131" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G131" t="s">
-        <v>389</v>
-      </c>
-      <c r="H131" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="H131">
+        <v>2</v>
       </c>
       <c r="I131" s="2">
         <v>44632</v>
       </c>
       <c r="J131" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K131">
         <v>0</v>
@@ -5481,23 +4815,23 @@
       <c r="B132" t="s">
         <v>141</v>
       </c>
-      <c r="C132" t="s">
-        <v>323</v>
+      <c r="C132">
+        <v>4710006512846</v>
       </c>
       <c r="F132" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G132" t="s">
-        <v>389</v>
-      </c>
-      <c r="H132" t="s">
-        <v>411</v>
+        <v>210</v>
+      </c>
+      <c r="H132">
+        <v>3</v>
       </c>
       <c r="I132" s="2">
         <v>44632</v>
       </c>
       <c r="J132" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K132">
         <v>0</v>
@@ -5510,23 +4844,23 @@
       <c r="B133" t="s">
         <v>142</v>
       </c>
-      <c r="C133" t="s">
-        <v>324</v>
+      <c r="C133">
+        <v>4712305973168</v>
       </c>
       <c r="F133" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G133" t="s">
-        <v>389</v>
-      </c>
-      <c r="H133" t="s">
-        <v>412</v>
+        <v>210</v>
+      </c>
+      <c r="H133">
+        <v>1</v>
       </c>
       <c r="I133" s="2">
         <v>44632</v>
       </c>
       <c r="J133" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K133">
         <v>0</v>
@@ -5539,23 +4873,23 @@
       <c r="B134" t="s">
         <v>143</v>
       </c>
-      <c r="C134" t="s">
-        <v>325</v>
+      <c r="C134">
+        <v>4710006511412</v>
       </c>
       <c r="F134" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G134" t="s">
-        <v>389</v>
-      </c>
-      <c r="H134" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="H134">
+        <v>2</v>
       </c>
       <c r="I134" s="2">
         <v>44632</v>
       </c>
       <c r="J134" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K134">
         <v>0</v>
@@ -5568,23 +4902,23 @@
       <c r="B135" t="s">
         <v>144</v>
       </c>
-      <c r="C135" t="s">
-        <v>326</v>
+      <c r="C135">
+        <v>4713327052497</v>
       </c>
       <c r="F135" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G135" t="s">
-        <v>389</v>
-      </c>
-      <c r="H135" t="s">
-        <v>412</v>
+        <v>210</v>
+      </c>
+      <c r="H135">
+        <v>1</v>
       </c>
       <c r="I135" s="2">
         <v>44632</v>
       </c>
       <c r="J135" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K135">
         <v>0</v>
@@ -5597,23 +4931,23 @@
       <c r="B136" t="s">
         <v>145</v>
       </c>
-      <c r="C136" t="s">
-        <v>327</v>
+      <c r="C136">
+        <v>4717514000018</v>
       </c>
       <c r="F136" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G136" t="s">
-        <v>389</v>
-      </c>
-      <c r="H136" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="H136">
+        <v>2</v>
       </c>
       <c r="I136" s="2">
         <v>44632</v>
       </c>
       <c r="J136" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K136">
         <v>0</v>
@@ -5626,23 +4960,23 @@
       <c r="B137" t="s">
         <v>146</v>
       </c>
-      <c r="C137" t="s">
-        <v>328</v>
+      <c r="C137">
+        <v>4711275100239</v>
       </c>
       <c r="F137" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G137" t="s">
-        <v>389</v>
-      </c>
-      <c r="H137" t="s">
-        <v>412</v>
+        <v>210</v>
+      </c>
+      <c r="H137">
+        <v>1</v>
       </c>
       <c r="I137" s="2">
         <v>44632</v>
       </c>
       <c r="J137" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K137">
         <v>0</v>
@@ -5655,23 +4989,23 @@
       <c r="B138" t="s">
         <v>147</v>
       </c>
-      <c r="C138" t="s">
-        <v>329</v>
+      <c r="C138">
+        <v>4711258520177</v>
       </c>
       <c r="F138" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G138" t="s">
-        <v>389</v>
-      </c>
-      <c r="H138" t="s">
-        <v>412</v>
+        <v>210</v>
+      </c>
+      <c r="H138">
+        <v>1</v>
       </c>
       <c r="I138" s="2">
         <v>44632</v>
       </c>
       <c r="J138" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K138">
         <v>0</v>
@@ -5684,23 +5018,23 @@
       <c r="B139" t="s">
         <v>148</v>
       </c>
-      <c r="C139" t="s">
-        <v>330</v>
+      <c r="C139">
+        <v>4717514000049</v>
       </c>
       <c r="F139" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G139" t="s">
-        <v>389</v>
-      </c>
-      <c r="H139" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="H139">
+        <v>2</v>
       </c>
       <c r="I139" s="2">
         <v>44632</v>
       </c>
       <c r="J139" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K139">
         <v>0</v>
@@ -5713,23 +5047,23 @@
       <c r="B140" t="s">
         <v>149</v>
       </c>
-      <c r="C140" t="s">
-        <v>331</v>
+      <c r="C140">
+        <v>4711275100222</v>
       </c>
       <c r="F140" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G140" t="s">
-        <v>389</v>
-      </c>
-      <c r="H140" t="s">
-        <v>412</v>
+        <v>210</v>
+      </c>
+      <c r="H140">
+        <v>1</v>
       </c>
       <c r="I140" s="2">
         <v>44632</v>
       </c>
       <c r="J140" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K140">
         <v>0</v>
@@ -5742,23 +5076,23 @@
       <c r="B141" t="s">
         <v>150</v>
       </c>
-      <c r="C141" t="s">
-        <v>332</v>
+      <c r="C141">
+        <v>4717514000544</v>
       </c>
       <c r="F141" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G141" t="s">
-        <v>389</v>
-      </c>
-      <c r="H141" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="H141">
+        <v>2</v>
       </c>
       <c r="I141" s="2">
         <v>44632</v>
       </c>
       <c r="J141" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K141">
         <v>0</v>
@@ -5771,23 +5105,23 @@
       <c r="B142" t="s">
         <v>151</v>
       </c>
-      <c r="C142" t="s">
-        <v>333</v>
+      <c r="C142">
+        <v>4717514005693</v>
       </c>
       <c r="F142" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G142" t="s">
-        <v>389</v>
-      </c>
-      <c r="H142" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="H142">
+        <v>2</v>
       </c>
       <c r="I142" s="2">
         <v>44632</v>
       </c>
       <c r="J142" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K142">
         <v>0</v>
@@ -5800,23 +5134,23 @@
       <c r="B143" t="s">
         <v>152</v>
       </c>
-      <c r="C143" t="s">
-        <v>334</v>
+      <c r="C143">
+        <v>78895423037</v>
       </c>
       <c r="F143" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G143" t="s">
-        <v>389</v>
-      </c>
-      <c r="H143" t="s">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="H143">
+        <v>12</v>
       </c>
       <c r="I143" s="2">
         <v>44632</v>
       </c>
       <c r="J143" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K143">
         <v>0</v>
@@ -5829,23 +5163,23 @@
       <c r="B144" t="s">
         <v>153</v>
       </c>
-      <c r="C144" t="s">
-        <v>335</v>
+      <c r="C144">
+        <v>4719783003035</v>
       </c>
       <c r="F144" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G144" t="s">
-        <v>389</v>
-      </c>
-      <c r="H144" t="s">
-        <v>425</v>
+        <v>210</v>
+      </c>
+      <c r="H144">
+        <v>16</v>
       </c>
       <c r="I144" s="2">
         <v>44632</v>
       </c>
       <c r="J144" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K144">
         <v>0</v>
@@ -5858,23 +5192,23 @@
       <c r="B145" t="s">
         <v>154</v>
       </c>
-      <c r="C145" t="s">
-        <v>336</v>
+      <c r="C145">
+        <v>3254474000500</v>
       </c>
       <c r="F145" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G145" t="s">
-        <v>389</v>
-      </c>
-      <c r="H145" t="s">
-        <v>425</v>
+        <v>210</v>
+      </c>
+      <c r="H145">
+        <v>16</v>
       </c>
       <c r="I145" s="2">
         <v>44632</v>
       </c>
       <c r="J145" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K145">
         <v>0</v>
@@ -5887,23 +5221,23 @@
       <c r="B146" t="s">
         <v>155</v>
       </c>
-      <c r="C146" t="s">
-        <v>337</v>
+      <c r="C146">
+        <v>4719783007620</v>
       </c>
       <c r="F146" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G146" t="s">
-        <v>389</v>
-      </c>
-      <c r="H146" t="s">
-        <v>426</v>
+        <v>210</v>
+      </c>
+      <c r="H146">
+        <v>8</v>
       </c>
       <c r="I146" s="2">
         <v>44632</v>
       </c>
       <c r="J146" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K146">
         <v>0</v>
@@ -5916,23 +5250,23 @@
       <c r="B147" t="s">
         <v>156</v>
       </c>
-      <c r="C147" t="s">
-        <v>338</v>
+      <c r="C147">
+        <v>4711258034117</v>
       </c>
       <c r="F147" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G147" t="s">
-        <v>389</v>
-      </c>
-      <c r="H147" t="s">
-        <v>412</v>
+        <v>210</v>
+      </c>
+      <c r="H147">
+        <v>1</v>
       </c>
       <c r="I147" s="2">
         <v>44632</v>
       </c>
       <c r="J147" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K147">
         <v>0</v>
@@ -5945,23 +5279,23 @@
       <c r="B148" t="s">
         <v>157</v>
       </c>
-      <c r="C148" t="s">
-        <v>339</v>
+      <c r="C148">
+        <v>3254474021840</v>
       </c>
       <c r="F148" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G148" t="s">
-        <v>389</v>
-      </c>
-      <c r="H148" t="s">
-        <v>426</v>
+        <v>210</v>
+      </c>
+      <c r="H148">
+        <v>8</v>
       </c>
       <c r="I148" s="2">
         <v>44632</v>
       </c>
       <c r="J148" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K148">
         <v>0</v>
@@ -5974,23 +5308,23 @@
       <c r="B149" t="s">
         <v>158</v>
       </c>
-      <c r="C149" t="s">
-        <v>340</v>
+      <c r="C149">
+        <v>4717514000070</v>
       </c>
       <c r="F149" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G149" t="s">
-        <v>389</v>
-      </c>
-      <c r="H149" t="s">
-        <v>409</v>
+        <v>210</v>
+      </c>
+      <c r="H149">
+        <v>2</v>
       </c>
       <c r="I149" s="2">
         <v>44632</v>
       </c>
       <c r="J149" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K149">
         <v>0</v>
@@ -6003,23 +5337,23 @@
       <c r="B150" t="s">
         <v>159</v>
       </c>
-      <c r="C150" t="s">
-        <v>341</v>
+      <c r="C150">
+        <v>4713737756220</v>
       </c>
       <c r="F150" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G150" t="s">
-        <v>389</v>
-      </c>
-      <c r="H150" t="s">
-        <v>419</v>
+        <v>210</v>
+      </c>
+      <c r="H150">
+        <v>60</v>
       </c>
       <c r="I150" s="2">
         <v>44632</v>
       </c>
       <c r="J150" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K150">
         <v>0</v>
@@ -6032,23 +5366,23 @@
       <c r="B151" t="s">
         <v>160</v>
       </c>
-      <c r="C151" t="s">
-        <v>342</v>
+      <c r="C151">
+        <v>4713737512833</v>
       </c>
       <c r="F151" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G151" t="s">
-        <v>389</v>
-      </c>
-      <c r="H151" t="s">
-        <v>419</v>
+        <v>210</v>
+      </c>
+      <c r="H151">
+        <v>60</v>
       </c>
       <c r="I151" s="2">
         <v>44632</v>
       </c>
       <c r="J151" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K151">
         <v>0</v>
@@ -6061,23 +5395,23 @@
       <c r="B152" t="s">
         <v>161</v>
       </c>
-      <c r="C152" t="s">
-        <v>343</v>
+      <c r="C152">
+        <v>4713737755636</v>
       </c>
       <c r="F152" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G152" t="s">
-        <v>389</v>
-      </c>
-      <c r="H152" t="s">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="H152">
+        <v>12</v>
       </c>
       <c r="I152" s="2">
         <v>44632</v>
       </c>
       <c r="J152" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K152">
         <v>0</v>
@@ -6091,22 +5425,22 @@
         <v>162</v>
       </c>
       <c r="C153" t="s">
-        <v>344</v>
+        <v>203</v>
       </c>
       <c r="F153" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G153" t="s">
-        <v>389</v>
-      </c>
-      <c r="H153" t="s">
-        <v>386</v>
+        <v>210</v>
+      </c>
+      <c r="H153">
+        <v>6</v>
       </c>
       <c r="I153" s="2">
         <v>44632</v>
       </c>
       <c r="J153" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K153">
         <v>0</v>
@@ -6119,23 +5453,23 @@
       <c r="B154" t="s">
         <v>163</v>
       </c>
-      <c r="C154" t="s">
-        <v>345</v>
+      <c r="C154">
+        <v>4713737722911</v>
       </c>
       <c r="F154" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G154" t="s">
-        <v>389</v>
-      </c>
-      <c r="H154" t="s">
-        <v>415</v>
+        <v>210</v>
+      </c>
+      <c r="H154">
+        <v>120</v>
       </c>
       <c r="I154" s="2">
         <v>44632</v>
       </c>
       <c r="J154" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K154">
         <v>0</v>
@@ -6148,23 +5482,23 @@
       <c r="B155" t="s">
         <v>164</v>
       </c>
-      <c r="C155" t="s">
-        <v>346</v>
+      <c r="C155">
+        <v>4713737754233</v>
       </c>
       <c r="F155" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G155" t="s">
-        <v>389</v>
-      </c>
-      <c r="H155" t="s">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="H155">
+        <v>12</v>
       </c>
       <c r="I155" s="2">
         <v>44632</v>
       </c>
       <c r="J155" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K155">
         <v>0</v>
@@ -6177,23 +5511,23 @@
       <c r="B156" t="s">
         <v>165</v>
       </c>
-      <c r="C156" t="s">
-        <v>347</v>
+      <c r="C156">
+        <v>4713737754219</v>
       </c>
       <c r="F156" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G156" t="s">
-        <v>389</v>
-      </c>
-      <c r="H156" t="s">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="H156">
+        <v>12</v>
       </c>
       <c r="I156" s="2">
         <v>44632</v>
       </c>
       <c r="J156" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K156">
         <v>0</v>
@@ -6206,23 +5540,23 @@
       <c r="B157" t="s">
         <v>166</v>
       </c>
-      <c r="C157" t="s">
-        <v>348</v>
+      <c r="C157">
+        <v>4713737754226</v>
       </c>
       <c r="F157" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G157" t="s">
-        <v>389</v>
-      </c>
-      <c r="H157" t="s">
-        <v>420</v>
+        <v>210</v>
+      </c>
+      <c r="H157">
+        <v>12</v>
       </c>
       <c r="I157" s="2">
         <v>44632</v>
       </c>
       <c r="J157" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K157">
         <v>0</v>
@@ -6235,23 +5569,23 @@
       <c r="B158" t="s">
         <v>167</v>
       </c>
-      <c r="C158" t="s">
-        <v>349</v>
+      <c r="C158">
+        <v>4713737754325</v>
       </c>
       <c r="F158" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G158" t="s">
-        <v>389</v>
-      </c>
-      <c r="H158" t="s">
-        <v>406</v>
+        <v>210</v>
+      </c>
+      <c r="H158">
+        <v>24</v>
       </c>
       <c r="I158" s="2">
         <v>44632</v>
       </c>
       <c r="J158" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K158">
         <v>0</v>
@@ -6264,23 +5598,23 @@
       <c r="B159" t="s">
         <v>168</v>
       </c>
-      <c r="C159" t="s">
-        <v>350</v>
+      <c r="C159">
+        <v>4713737754257</v>
       </c>
       <c r="F159" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G159" t="s">
-        <v>389</v>
-      </c>
-      <c r="H159" t="s">
-        <v>406</v>
+        <v>210</v>
+      </c>
+      <c r="H159">
+        <v>24</v>
       </c>
       <c r="I159" s="2">
         <v>44632</v>
       </c>
       <c r="J159" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K159">
         <v>0</v>
@@ -6293,23 +5627,23 @@
       <c r="B160" t="s">
         <v>169</v>
       </c>
-      <c r="C160" t="s">
-        <v>351</v>
+      <c r="C160">
+        <v>4713737512741</v>
       </c>
       <c r="F160" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G160" t="s">
-        <v>389</v>
-      </c>
-      <c r="H160" t="s">
-        <v>413</v>
+        <v>210</v>
+      </c>
+      <c r="H160">
+        <v>40</v>
       </c>
       <c r="I160" s="2">
         <v>44632</v>
       </c>
       <c r="J160" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K160">
         <v>0</v>
@@ -6322,23 +5656,23 @@
       <c r="B161" t="s">
         <v>170</v>
       </c>
-      <c r="C161" t="s">
-        <v>352</v>
+      <c r="C161">
+        <v>4713737512734</v>
       </c>
       <c r="F161" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G161" t="s">
-        <v>389</v>
-      </c>
-      <c r="H161" t="s">
-        <v>406</v>
+        <v>210</v>
+      </c>
+      <c r="H161">
+        <v>24</v>
       </c>
       <c r="I161" s="2">
         <v>44632</v>
       </c>
       <c r="J161" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K161">
         <v>0</v>
@@ -6351,23 +5685,23 @@
       <c r="B162" t="s">
         <v>171</v>
       </c>
-      <c r="C162" t="s">
-        <v>353</v>
+      <c r="C162">
+        <v>4713737751270</v>
       </c>
       <c r="F162" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G162" t="s">
-        <v>389</v>
-      </c>
-      <c r="H162" t="s">
-        <v>427</v>
+        <v>210</v>
+      </c>
+      <c r="H162">
+        <v>36</v>
       </c>
       <c r="I162" s="2">
         <v>44632</v>
       </c>
       <c r="J162" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K162">
         <v>0</v>
@@ -6380,23 +5714,23 @@
       <c r="B163" t="s">
         <v>172</v>
       </c>
-      <c r="C163" t="s">
-        <v>354</v>
+      <c r="C163">
+        <v>4713737512789</v>
       </c>
       <c r="F163" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G163" t="s">
-        <v>389</v>
-      </c>
-      <c r="H163" t="s">
-        <v>406</v>
+        <v>210</v>
+      </c>
+      <c r="H163">
+        <v>24</v>
       </c>
       <c r="I163" s="2">
         <v>44632</v>
       </c>
       <c r="J163" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K163">
         <v>0</v>
@@ -6409,23 +5743,23 @@
       <c r="B164" t="s">
         <v>173</v>
       </c>
-      <c r="C164" t="s">
-        <v>355</v>
+      <c r="C164">
+        <v>4713737651273</v>
       </c>
       <c r="F164" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G164" t="s">
-        <v>389</v>
-      </c>
-      <c r="H164" t="s">
-        <v>406</v>
+        <v>210</v>
+      </c>
+      <c r="H164">
+        <v>24</v>
       </c>
       <c r="I164" s="2">
         <v>44632</v>
       </c>
       <c r="J164" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K164">
         <v>0</v>
@@ -6438,23 +5772,23 @@
       <c r="B165" t="s">
         <v>174</v>
       </c>
-      <c r="C165" t="s">
-        <v>356</v>
+      <c r="C165">
+        <v>4713737755612</v>
       </c>
       <c r="F165" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G165" t="s">
-        <v>389</v>
-      </c>
-      <c r="H165" t="s">
-        <v>419</v>
+        <v>210</v>
+      </c>
+      <c r="H165">
+        <v>60</v>
       </c>
       <c r="I165" s="2">
         <v>44632</v>
       </c>
       <c r="J165" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K165">
         <v>0</v>
@@ -6467,23 +5801,23 @@
       <c r="B166" t="s">
         <v>175</v>
       </c>
-      <c r="C166" t="s">
-        <v>357</v>
+      <c r="C166">
+        <v>4713737755629</v>
       </c>
       <c r="F166" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G166" t="s">
-        <v>389</v>
-      </c>
-      <c r="H166" t="s">
-        <v>406</v>
+        <v>210</v>
+      </c>
+      <c r="H166">
+        <v>24</v>
       </c>
       <c r="I166" s="2">
         <v>44632</v>
       </c>
       <c r="J166" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K166">
         <v>0</v>
@@ -6496,23 +5830,23 @@
       <c r="B167" t="s">
         <v>176</v>
       </c>
-      <c r="C167" t="s">
-        <v>358</v>
+      <c r="C167">
+        <v>4713737512840</v>
       </c>
       <c r="F167" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G167" t="s">
-        <v>389</v>
-      </c>
-      <c r="H167" t="s">
-        <v>398</v>
+        <v>210</v>
+      </c>
+      <c r="H167">
+        <v>50</v>
       </c>
       <c r="I167" s="2">
         <v>44632</v>
       </c>
       <c r="J167" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K167">
         <v>0</v>
@@ -6525,23 +5859,23 @@
       <c r="B168" t="s">
         <v>177</v>
       </c>
-      <c r="C168" t="s">
-        <v>359</v>
+      <c r="C168">
+        <v>4713737512888</v>
       </c>
       <c r="F168" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G168" t="s">
-        <v>389</v>
-      </c>
-      <c r="H168" t="s">
-        <v>428</v>
+        <v>210</v>
+      </c>
+      <c r="H168">
+        <v>80</v>
       </c>
       <c r="I168" s="2">
         <v>44632</v>
       </c>
       <c r="J168" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K168">
         <v>0</v>
@@ -6554,23 +5888,23 @@
       <c r="B169" t="s">
         <v>178</v>
       </c>
-      <c r="C169" t="s">
-        <v>360</v>
+      <c r="C169">
+        <v>4713737512864</v>
       </c>
       <c r="F169" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G169" t="s">
-        <v>389</v>
-      </c>
-      <c r="H169" t="s">
-        <v>419</v>
+        <v>210</v>
+      </c>
+      <c r="H169">
+        <v>60</v>
       </c>
       <c r="I169" s="2">
         <v>44632</v>
       </c>
       <c r="J169" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K169">
         <v>0</v>
@@ -6583,23 +5917,23 @@
       <c r="B170" t="s">
         <v>179</v>
       </c>
-      <c r="C170" t="s">
-        <v>361</v>
+      <c r="C170">
+        <v>4713737128935</v>
       </c>
       <c r="F170" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G170" t="s">
-        <v>389</v>
-      </c>
-      <c r="H170" t="s">
-        <v>428</v>
+        <v>210</v>
+      </c>
+      <c r="H170">
+        <v>80</v>
       </c>
       <c r="I170" s="2">
         <v>44632</v>
       </c>
       <c r="J170" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K170">
         <v>0</v>
@@ -6612,23 +5946,23 @@
       <c r="B171" t="s">
         <v>180</v>
       </c>
-      <c r="C171" t="s">
-        <v>362</v>
+      <c r="C171">
+        <v>4713737051271</v>
       </c>
       <c r="F171" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G171" t="s">
-        <v>389</v>
-      </c>
-      <c r="H171" t="s">
-        <v>428</v>
+        <v>210</v>
+      </c>
+      <c r="H171">
+        <v>80</v>
       </c>
       <c r="I171" s="2">
         <v>44632</v>
       </c>
       <c r="J171" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K171">
         <v>0</v>
@@ -6641,23 +5975,23 @@
       <c r="B172" t="s">
         <v>181</v>
       </c>
-      <c r="C172" t="s">
-        <v>363</v>
+      <c r="C172">
+        <v>4713737151278</v>
       </c>
       <c r="F172" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G172" t="s">
-        <v>389</v>
-      </c>
-      <c r="H172" t="s">
-        <v>393</v>
+        <v>210</v>
+      </c>
+      <c r="H172">
+        <v>90</v>
       </c>
       <c r="I172" s="2">
         <v>44632</v>
       </c>
       <c r="J172" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K172">
         <v>0</v>
@@ -6670,23 +6004,23 @@
       <c r="B173" t="s">
         <v>182</v>
       </c>
-      <c r="C173" t="s">
-        <v>364</v>
+      <c r="C173">
+        <v>3605975038132</v>
       </c>
       <c r="F173" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G173" t="s">
-        <v>389</v>
-      </c>
-      <c r="H173" t="s">
-        <v>429</v>
+        <v>210</v>
+      </c>
+      <c r="H173">
+        <v>500</v>
       </c>
       <c r="I173" s="2">
         <v>44632</v>
       </c>
       <c r="J173" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K173">
         <v>0</v>
@@ -6699,23 +6033,23 @@
       <c r="B174" t="s">
         <v>183</v>
       </c>
-      <c r="C174" t="s">
-        <v>365</v>
+      <c r="C174">
+        <v>192333066966</v>
       </c>
       <c r="F174" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G174" t="s">
-        <v>389</v>
-      </c>
-      <c r="H174" t="s">
-        <v>422</v>
+        <v>210</v>
+      </c>
+      <c r="H174">
+        <v>30</v>
       </c>
       <c r="I174" s="2">
         <v>44632</v>
       </c>
       <c r="J174" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K174">
         <v>0</v>
@@ -6728,23 +6062,23 @@
       <c r="B175" t="s">
         <v>184</v>
       </c>
-      <c r="C175" t="s">
-        <v>366</v>
+      <c r="C175">
+        <v>3614272623507</v>
       </c>
       <c r="F175" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G175" t="s">
-        <v>389</v>
-      </c>
-      <c r="H175" t="s">
-        <v>404</v>
+        <v>210</v>
+      </c>
+      <c r="H175">
+        <v>300</v>
       </c>
       <c r="I175" s="2">
         <v>44632</v>
       </c>
       <c r="J175" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K175">
         <v>0</v>
@@ -6757,23 +6091,23 @@
       <c r="B176" t="s">
         <v>185</v>
       </c>
-      <c r="C176" t="s">
-        <v>367</v>
+      <c r="C176">
+        <v>717334247086</v>
       </c>
       <c r="F176" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G176" t="s">
-        <v>389</v>
-      </c>
-      <c r="H176" t="s">
-        <v>396</v>
+        <v>210</v>
+      </c>
+      <c r="H176">
+        <v>100</v>
       </c>
       <c r="I176" s="2">
         <v>44632</v>
       </c>
       <c r="J176" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K176">
         <v>0</v>
@@ -6786,23 +6120,23 @@
       <c r="B177" t="s">
         <v>186</v>
       </c>
-      <c r="C177" t="s">
-        <v>368</v>
+      <c r="C177">
+        <v>4710273811727</v>
       </c>
       <c r="F177" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G177" t="s">
-        <v>389</v>
-      </c>
-      <c r="H177" t="s">
-        <v>413</v>
+        <v>210</v>
+      </c>
+      <c r="H177">
+        <v>40</v>
       </c>
       <c r="I177" s="2">
         <v>44632</v>
       </c>
       <c r="J177" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K177">
         <v>0</v>
@@ -6815,23 +6149,23 @@
       <c r="B178" t="s">
         <v>187</v>
       </c>
-      <c r="C178" t="s">
-        <v>369</v>
+      <c r="C178">
+        <v>4710273811826</v>
       </c>
       <c r="F178" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G178" t="s">
-        <v>389</v>
-      </c>
-      <c r="H178" t="s">
-        <v>422</v>
+        <v>210</v>
+      </c>
+      <c r="H178">
+        <v>30</v>
       </c>
       <c r="I178" s="2">
         <v>44632</v>
       </c>
       <c r="J178" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K178">
         <v>0</v>
@@ -6844,23 +6178,23 @@
       <c r="B179" t="s">
         <v>188</v>
       </c>
-      <c r="C179" t="s">
-        <v>370</v>
+      <c r="C179">
+        <v>4710273811680</v>
       </c>
       <c r="F179" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G179" t="s">
-        <v>389</v>
-      </c>
-      <c r="H179" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H179">
+        <v>20</v>
       </c>
       <c r="I179" s="2">
         <v>44632</v>
       </c>
       <c r="J179" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K179">
         <v>0</v>
@@ -6873,23 +6207,23 @@
       <c r="B180" t="s">
         <v>189</v>
       </c>
-      <c r="C180" t="s">
-        <v>371</v>
+      <c r="C180">
+        <v>4710273811703</v>
       </c>
       <c r="F180" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G180" t="s">
-        <v>389</v>
-      </c>
-      <c r="H180" t="s">
-        <v>422</v>
+        <v>210</v>
+      </c>
+      <c r="H180">
+        <v>30</v>
       </c>
       <c r="I180" s="2">
         <v>44632</v>
       </c>
       <c r="J180" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K180">
         <v>0</v>
@@ -6902,23 +6236,23 @@
       <c r="B181" t="s">
         <v>190</v>
       </c>
-      <c r="C181" t="s">
-        <v>372</v>
+      <c r="C181">
+        <v>4710273811758</v>
       </c>
       <c r="F181" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G181" t="s">
-        <v>389</v>
-      </c>
-      <c r="H181" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H181">
+        <v>20</v>
       </c>
       <c r="I181" s="2">
         <v>44632</v>
       </c>
       <c r="J181" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K181">
         <v>0</v>
@@ -6931,23 +6265,23 @@
       <c r="B182" t="s">
         <v>191</v>
       </c>
-      <c r="C182" t="s">
-        <v>373</v>
+      <c r="C182">
+        <v>4710273811710</v>
       </c>
       <c r="F182" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G182" t="s">
-        <v>389</v>
-      </c>
-      <c r="H182" t="s">
-        <v>395</v>
+        <v>210</v>
+      </c>
+      <c r="H182">
+        <v>20</v>
       </c>
       <c r="I182" s="2">
         <v>44632</v>
       </c>
       <c r="J182" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K182">
         <v>0</v>
@@ -6960,23 +6294,23 @@
       <c r="B183" t="s">
         <v>192</v>
       </c>
-      <c r="C183" t="s">
-        <v>374</v>
+      <c r="C183">
+        <v>4710273811772</v>
       </c>
       <c r="F183" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G183" t="s">
-        <v>389</v>
-      </c>
-      <c r="H183" t="s">
-        <v>422</v>
+        <v>210</v>
+      </c>
+      <c r="H183">
+        <v>30</v>
       </c>
       <c r="I183" s="2">
         <v>44632</v>
       </c>
       <c r="J183" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K183">
         <v>0</v>
@@ -6989,23 +6323,23 @@
       <c r="B184" t="s">
         <v>193</v>
       </c>
-      <c r="C184" t="s">
-        <v>375</v>
+      <c r="C184">
+        <v>4710273811864</v>
       </c>
       <c r="F184" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G184" t="s">
-        <v>389</v>
-      </c>
-      <c r="H184" t="s">
-        <v>413</v>
+        <v>210</v>
+      </c>
+      <c r="H184">
+        <v>40</v>
       </c>
       <c r="I184" s="2">
         <v>44632</v>
       </c>
       <c r="J184" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K184">
         <v>0</v>
@@ -7018,23 +6352,23 @@
       <c r="B185" t="s">
         <v>194</v>
       </c>
-      <c r="C185" t="s">
-        <v>376</v>
+      <c r="C185">
+        <v>4710273811871</v>
       </c>
       <c r="F185" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G185" t="s">
-        <v>389</v>
-      </c>
-      <c r="H185" t="s">
-        <v>413</v>
+        <v>210</v>
+      </c>
+      <c r="H185">
+        <v>40</v>
       </c>
       <c r="I185" s="2">
         <v>44632</v>
       </c>
       <c r="J185" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K185">
         <v>0</v>
@@ -7047,23 +6381,23 @@
       <c r="B186" t="s">
         <v>195</v>
       </c>
-      <c r="C186" t="s">
-        <v>377</v>
+      <c r="C186">
+        <v>4710273811833</v>
       </c>
       <c r="F186" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G186" t="s">
-        <v>389</v>
-      </c>
-      <c r="H186" t="s">
-        <v>413</v>
+        <v>210</v>
+      </c>
+      <c r="H186">
+        <v>40</v>
       </c>
       <c r="I186" s="2">
         <v>44632</v>
       </c>
       <c r="J186" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K186">
         <v>0</v>
@@ -7076,23 +6410,23 @@
       <c r="B187" t="s">
         <v>196</v>
       </c>
-      <c r="C187" t="s">
-        <v>378</v>
+      <c r="C187">
+        <v>4710273811598</v>
       </c>
       <c r="F187" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G187" t="s">
-        <v>389</v>
-      </c>
-      <c r="H187" t="s">
-        <v>398</v>
+        <v>210</v>
+      </c>
+      <c r="H187">
+        <v>50</v>
       </c>
       <c r="I187" s="2">
         <v>44632</v>
       </c>
       <c r="J187" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K187">
         <v>0</v>
@@ -7106,22 +6440,22 @@
         <v>197</v>
       </c>
       <c r="C188" t="s">
-        <v>379</v>
+        <v>204</v>
       </c>
       <c r="F188" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G188" t="s">
-        <v>389</v>
-      </c>
-      <c r="H188" t="s">
-        <v>416</v>
+        <v>210</v>
+      </c>
+      <c r="H188">
+        <v>32</v>
       </c>
       <c r="I188" s="2">
         <v>44632</v>
       </c>
       <c r="J188" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K188">
         <v>0</v>
@@ -7134,23 +6468,23 @@
       <c r="B189" t="s">
         <v>198</v>
       </c>
-      <c r="C189" t="s">
-        <v>380</v>
+      <c r="C189">
+        <v>4710679231136</v>
       </c>
       <c r="F189" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G189" t="s">
-        <v>389</v>
-      </c>
-      <c r="H189" t="s">
-        <v>430</v>
+        <v>210</v>
+      </c>
+      <c r="H189">
+        <v>108</v>
       </c>
       <c r="I189" s="2">
         <v>44632</v>
       </c>
       <c r="J189" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K189">
         <v>0</v>
@@ -7163,23 +6497,23 @@
       <c r="B190" t="s">
         <v>199</v>
       </c>
-      <c r="C190" t="s">
-        <v>381</v>
+      <c r="C190">
+        <v>4710679231150</v>
       </c>
       <c r="F190" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G190" t="s">
-        <v>389</v>
-      </c>
-      <c r="H190" t="s">
-        <v>431</v>
+        <v>210</v>
+      </c>
+      <c r="H190">
+        <v>72</v>
       </c>
       <c r="I190" s="2">
         <v>44632</v>
       </c>
       <c r="J190" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K190">
         <v>0</v>
@@ -7192,23 +6526,23 @@
       <c r="B191" t="s">
         <v>200</v>
       </c>
-      <c r="C191" t="s">
-        <v>382</v>
+      <c r="C191">
+        <v>4710679231129</v>
       </c>
       <c r="F191" t="s">
-        <v>388</v>
+        <v>209</v>
       </c>
       <c r="G191" t="s">
-        <v>389</v>
-      </c>
-      <c r="H191" t="s">
-        <v>432</v>
+        <v>210</v>
+      </c>
+      <c r="H191">
+        <v>252</v>
       </c>
       <c r="I191" s="2">
         <v>44632</v>
       </c>
       <c r="J191" t="s">
-        <v>433</v>
+        <v>211</v>
       </c>
       <c r="K191">
         <v>0</v>
